--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2840947-7BC5-4854-A1A2-5CB309F1A9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6F0388-F749-4E10-AAFA-E76A074B78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE9FD8-6A9A-4BAA-A182-33A51F218220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5D79F-EAC6-4C39-88D0-D67326F29DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="844">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C8F5D-D1F8-4C3C-916A-C26AC74F8087}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="52" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B297" sqref="B297:B309"/>
     </sheetView>
   </sheetViews>
@@ -12884,30 +12884,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="55" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="63.5703125" style="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="63.5703125" style="1"/>
-    <col min="6" max="6" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.5703125" style="1"/>
-    <col min="8" max="8" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="63.5703125" style="1"/>
-    <col min="20" max="20" width="87.28515625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="63.5703125" style="1"/>
-    <col min="24" max="24" width="95.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="63.5703125" style="1"/>
-    <col min="26" max="26" width="111.85546875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="63.5703125" style="1"/>
+    <col min="1" max="3" width="63.5703125" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="63.5703125" style="1"/>
+    <col min="7" max="7" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.5703125" style="1"/>
+    <col min="9" max="9" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="63.5703125" style="1"/>
+    <col min="21" max="21" width="87.28515625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="63.5703125" style="1"/>
+    <col min="25" max="25" width="95.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="63.5703125" style="1"/>
+    <col min="27" max="27" width="111.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="63.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -12915,2249 +12915,2442 @@
         <v>843</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="F2" s="33">
+      <c r="G2" s="33">
         <v>2022</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="34">
         <v>2</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="33">
+      <c r="G3" s="33">
         <v>2022</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="34">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2020</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J5" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="33" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="33" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
       <c r="B6" s="34">
         <v>5</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="33">
+      <c r="G6" s="33">
         <v>2021</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>234</v>
-      </c>
       <c r="J6" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="K6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="U6" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="X6" s="33" t="s">
+      <c r="Y6" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AA6" s="33" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
       <c r="B7" s="34">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2020</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="360" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
       <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2020</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
       <c r="B9" s="34">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>2018</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="K9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
       <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2021</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
       <c r="B11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>2019</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="240" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
       <c r="B12" s="34">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2020</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
       <c r="B13" s="34">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>2017</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J13" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
       <c r="B14" s="34">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2016</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
       <c r="B15" s="34">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>2016</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J15" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
       <c r="B16" s="34">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2020</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
       <c r="B17" s="34">
         <v>10</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2018</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
       <c r="B18" s="34">
         <v>11</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2019</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J18" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
       <c r="B19" s="34">
         <v>12</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>2017</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J19" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
       <c r="B20" s="34">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2019</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
       <c r="B21" s="34">
         <v>14</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>2018</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
       <c r="B22" s="34">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>2020</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J22" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
       <c r="B23" s="34">
         <v>16</v>
       </c>
-      <c r="C23" s="16">
-        <v>2</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>23</v>
       </c>
       <c r="B24" s="34">
         <v>17</v>
       </c>
-      <c r="C24" s="16">
-        <v>2</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="C24" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>24</v>
       </c>
       <c r="B25" s="34">
         <v>18</v>
       </c>
-      <c r="C25" s="16">
-        <v>2</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>25</v>
       </c>
       <c r="B26" s="34">
         <v>19</v>
       </c>
-      <c r="C26" s="16">
-        <v>2</v>
-      </c>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>26</v>
       </c>
       <c r="B27" s="34">
         <v>20</v>
       </c>
-      <c r="C27" s="16">
-        <v>2</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>27</v>
       </c>
       <c r="B28" s="34">
         <v>21</v>
       </c>
-      <c r="C28" s="16">
-        <v>2</v>
-      </c>
-      <c r="D28" s="29" t="s">
+      <c r="C28" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>28</v>
       </c>
       <c r="B29" s="34">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>2019</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>29</v>
       </c>
       <c r="B30" s="34">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>2017</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="360" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>30</v>
       </c>
       <c r="B31" s="34">
         <v>3</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>2020</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="K31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>31</v>
       </c>
       <c r="B32" s="34">
         <v>4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>2020</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>32</v>
       </c>
       <c r="B33" s="34">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>2020</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>33</v>
       </c>
       <c r="B34" s="34">
         <v>6</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>2021</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J34" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="Y34" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>34</v>
       </c>
       <c r="B35" s="34">
         <v>7</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>2018</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>35</v>
       </c>
       <c r="B36" s="34">
         <v>8</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>2019</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>36</v>
       </c>
       <c r="B37" s="34">
         <v>9</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>2021</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>37</v>
       </c>
       <c r="B38" s="34">
         <v>10</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>2020</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>38</v>
       </c>
       <c r="B39" s="34">
         <v>11</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="16">
         <v>3</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
       <c r="B40" s="34">
         <v>12</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="16">
         <v>3</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
       <c r="B41" s="34">
         <v>13</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="16">
         <v>3</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
       <c r="B42" s="34">
         <v>14</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="16">
         <v>3</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
       <c r="B43" s="34">
         <v>15</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="16">
         <v>3</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>43</v>
       </c>
       <c r="B44" s="34">
         <v>16</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="16">
         <v>3</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>44</v>
       </c>
       <c r="B45" s="34">
         <v>17</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="16">
         <v>3</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>45</v>
       </c>
       <c r="B46" s="34">
         <v>18</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="16">
         <v>3</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>46</v>
       </c>
       <c r="B47" s="34">
         <v>19</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="16">
         <v>3</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>47</v>
       </c>
       <c r="B48" s="34">
         <v>1</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>2018</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J48" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>48</v>
       </c>
       <c r="B49" s="34">
         <v>2</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>2019</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J49" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
       <c r="B50" s="34">
         <v>3</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="1">
         <v>4</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>2020</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>50</v>
       </c>
       <c r="B51" s="34">
         <v>4</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="1">
         <v>4</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>749</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>2020</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>51</v>
       </c>
       <c r="B52" s="34">
         <v>5</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="16">
         <v>4</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="375" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="375" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
       <c r="B53" s="34">
         <v>1</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>2017</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="330" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="330" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
       <c r="B54" s="34">
         <v>2</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="1">
         <v>5</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>2021</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="330" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="330" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
       <c r="B55" s="34">
         <v>3</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>2014</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="S55" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="Y55" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
       <c r="B56" s="34">
         <v>4</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>2019</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J56" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>56</v>
       </c>
       <c r="B57" s="34">
         <v>5</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="1">
         <v>5</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="N57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="Y57" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
       <c r="B58" s="34">
         <v>6</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="K58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="Y58" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Z58" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="270" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>58</v>
       </c>
       <c r="B59" s="34">
         <v>7</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>788</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>2018</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="345" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="345" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>59</v>
       </c>
       <c r="B60" s="34">
         <v>8</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>2017</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="U60" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="Y60" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>60</v>
       </c>
       <c r="B61" s="34">
         <v>9</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>2014</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J61" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="360" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="360" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>61</v>
       </c>
       <c r="B62" s="34">
         <v>10</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>2018</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="X62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y62" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Y62" s="1" t="s">
+      <c r="Z62" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>62</v>
       </c>
       <c r="B63" s="34">
         <v>11</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>2018</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J63" s="1" t="s">
         <v>260</v>
       </c>
       <c r="K63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>63</v>
       </c>
       <c r="B64" s="34">
         <v>12</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>2020</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>749</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J64" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="Y64" s="1" t="s">
         <v>485</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D48" r:id="rId1" xr:uid="{DB4FDD54-9738-426F-A637-2CFED0BD7909}"/>
-    <hyperlink ref="D29" r:id="rId2" xr:uid="{6E69C96C-BB2E-4FBF-9BFC-287D34F324E8}"/>
-    <hyperlink ref="D33" r:id="rId3" xr:uid="{F6F8D996-5CE3-4D7A-B550-74CD0A9C421C}"/>
+    <hyperlink ref="E48" r:id="rId1" xr:uid="{DB4FDD54-9738-426F-A637-2CFED0BD7909}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{6E69C96C-BB2E-4FBF-9BFC-287D34F324E8}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{F6F8D996-5CE3-4D7A-B550-74CD0A9C421C}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{B27B354F-0038-4A92-9B27-B87AFC483E60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15165,2089 +15358,2473 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A64"/>
+    <sheetView topLeftCell="A58" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="77.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="83.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="104.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="166.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36" style="1" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="119.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="159.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="87.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="82.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="3" width="63.5703125" style="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="77.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="83.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="104.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="166.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36" style="1" customWidth="1"/>
+    <col min="19" max="19" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="119.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="159.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="87.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="82.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="33">
+        <v>1</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="33">
+      <c r="G2" s="33">
         <v>2022</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="34">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="E3" s="33">
+      <c r="G3" s="33">
         <v>2022</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="34">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>2021</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="34">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>2020</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
+        <v>5</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="33">
+      <c r="G6" s="33">
         <v>2021</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="I6" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="M6" s="33" t="s">
+      <c r="J6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>498</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="U6" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="Y6" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="AA6" s="33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="34">
+        <v>6</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>2020</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>2020</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="34">
+        <v>2</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>2018</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="34">
+        <v>3</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>2021</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="34">
+        <v>4</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>2019</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="34">
+        <v>5</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>2020</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="34">
+        <v>6</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>2017</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="34">
+        <v>7</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>2016</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="34">
+        <v>8</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>2016</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="34">
+        <v>9</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>2020</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="34">
+        <v>10</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>2018</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="34">
+        <v>11</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>2019</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="34">
+        <v>12</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>2017</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="34">
+        <v>13</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>2019</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="34">
+        <v>14</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>2018</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="34">
+        <v>15</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>2020</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="J22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>22</v>
       </c>
-      <c r="B23" s="16">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="34">
+        <v>16</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>23</v>
       </c>
-      <c r="B24" s="16">
-        <v>2</v>
-      </c>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="34">
+        <v>17</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>24</v>
       </c>
-      <c r="B25" s="16">
-        <v>2</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="34">
+        <v>18</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="16">
-        <v>2</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="34">
+        <v>19</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>26</v>
       </c>
-      <c r="B27" s="16">
-        <v>2</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="34">
+        <v>20</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="B28" s="16">
-        <v>2</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="34">
+        <v>21</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="16">
+        <v>2</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="34">
+        <v>1</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="E29" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>2019</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="34">
+        <v>2</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>2017</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="34">
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>2020</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="J31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="34">
+        <v>4</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>2020</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="34">
+        <v>5</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>790</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>2020</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
         <v>2021</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="Y34" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="34">
+        <v>7</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E35" s="1">
+      <c r="G35" s="1">
         <v>2018</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="34">
+        <v>8</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E36" s="1">
+      <c r="G36" s="1">
         <v>2019</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="34">
+        <v>9</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E37" s="1">
+      <c r="G37" s="1">
         <v>2021</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="34">
+        <v>10</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E38" s="1">
+      <c r="G38" s="1">
         <v>2020</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>38</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="34">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="16">
         <v>3</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>39</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="34">
+        <v>12</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="16">
         <v>3</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>40</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="34">
+        <v>13</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="16">
         <v>3</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>41</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="34">
+        <v>14</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="16">
         <v>3</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>42</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="34">
+        <v>15</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="16">
         <v>3</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>43</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="34">
+        <v>16</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="16">
         <v>3</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>44</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="34">
+        <v>17</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="16">
         <v>3</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>45</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="34">
+        <v>18</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="16">
         <v>3</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="E46" s="16" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>46</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="34">
+        <v>19</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="16">
         <v>3</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="34">
+        <v>1</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="E48" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E48" s="1">
+      <c r="G48" s="1">
         <v>2018</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L48" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="34">
+        <v>2</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="1">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E49" s="1">
+      <c r="G49" s="1">
         <v>2019</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="S49" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="34">
+        <v>3</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="1">
         <v>4</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E50" s="1">
+      <c r="G50" s="1">
         <v>2020</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="34">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
         <v>749</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E51" s="1">
+      <c r="G51" s="1">
         <v>2020</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>51</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="34">
+        <v>5</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="16">
         <v>4</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="34">
+        <v>1</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E53" s="1">
+      <c r="G53" s="1">
         <v>2017</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J53" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="34">
+        <v>2</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="1">
         <v>5</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E54" s="1">
+      <c r="G54" s="1">
         <v>2021</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="J54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="34">
+        <v>3</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E55" s="1">
+      <c r="G55" s="1">
         <v>2014</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="S55" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="Y55" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="34">
+        <v>4</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="1">
         <v>5</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="1">
+      <c r="G56" s="1">
         <v>2019</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="34">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="34">
         <v>5</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M57" s="1" t="s">
+      <c r="J57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="Y57" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="34">
+        <v>6</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M58" s="1" t="s">
+      <c r="J58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="Y58" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="Z58" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="34">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="34">
+        <v>7</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="1">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>788</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E59" s="1">
+      <c r="G59" s="1">
         <v>2018</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="34">
+        <v>8</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E60" s="1">
+      <c r="G60" s="1">
         <v>2017</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J60" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="U60" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="Y60" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="34">
+        <v>9</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="1">
         <v>5</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E61" s="1">
+      <c r="G61" s="1">
         <v>2014</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="34">
+        <v>10</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E62" s="1">
+      <c r="G62" s="1">
         <v>2018</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="W62" s="1" t="s">
+      <c r="J62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y62" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="Z62" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="34">
+        <v>11</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="1">
         <v>5</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E63" s="1">
+      <c r="G63" s="1">
         <v>2018</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="J63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L63" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="34">
+        <v>12</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E64" s="1">
+      <c r="G64" s="1">
         <v>2020</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>749</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="J64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="Y64" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" xr:uid="{FBF5D83C-4759-4B29-BF99-F3DAC0AEE1CF}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{37362D61-EDB1-4487-B904-7101054A1DC0}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{E65D204B-D078-4073-BC4D-E4CE875FA88B}"/>
+    <hyperlink ref="E48" r:id="rId1" xr:uid="{FBF5D83C-4759-4B29-BF99-F3DAC0AEE1CF}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{37362D61-EDB1-4487-B904-7101054A1DC0}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{E65D204B-D078-4073-BC4D-E4CE875FA88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABB857-1114-471B-B95E-906651D50686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D92631-0B13-4C69-A2B5-CF86F07C27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="1125" windowWidth="21600" windowHeight="13860" tabRatio="545" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="901">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -2993,6 +2993,55 @@
   </si>
   <si>
     <t>This profile showcases the FAIR for Research Software (FAIR4RS) Working Group, and is part of a second collection of profiles published in July 2021</t>
+  </si>
+  <si>
+    <t>A National Agenda for Research Software</t>
+  </si>
+  <si>
+    <t>Australian Research Data Commons</t>
+  </si>
+  <si>
+    <t>Toward defining and implementing FAIR for research software</t>
+  </si>
+  <si>
+    <t>High-level overview of FAIR4RS work</t>
+  </si>
+  <si>
+    <t>Software as a first class output in a FAIR ecosystem</t>
+  </si>
+  <si>
+    <t>Archive source code in Software Heritage</t>
+  </si>
+  <si>
+    <t>FAIR4RS Roadmap Report</t>
+  </si>
+  <si>
+    <t>FAIR4RS: Adoption support</t>
+  </si>
+  <si>
+    <t>Summaries adoption of FAIR4RS by different communities</t>
+  </si>
+  <si>
+    <t>AGU: a link to where the software is being actively developed, often a
+GitHub repository</t>
+  </si>
+  <si>
+    <t>AGU: Instructions to authors to preserve their software in a repository (authors often choose
+Zenodo)
+ESMAValTool: Having a globally unique and persistent identifier, with distinct identifiers for different
+versions by being indexed in Zenodo: the tool consists of two components, with different
+identifiers for versions and are indexed in Zenodo</t>
+  </si>
+  <si>
+    <t>ESMAVaTool: The software is described with rich and searchable metadata by having a citation file
+(CFF)</t>
+  </si>
+  <si>
+    <t>ESMAValTool: being indexed in the Research Software Directory, (https://research-software.nl/software/esmvaltool), PyPI
+(https://pypi.org/project/ESMValTool/), and Conda-forge (https://anaconda.org/conda-forge/esmvaltool)</t>
+  </si>
+  <si>
+    <t>ESMValGroup: It has an Apache 2.0 licence</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3195,6 +3244,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3210,14 +3263,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4739,20 +4785,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -4788,20 +4834,20 @@
       <c r="A7" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -4837,16 +4883,16 @@
       <c r="A13" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -4882,16 +4928,16 @@
       <c r="A19" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
@@ -4927,16 +4973,16 @@
       <c r="A25" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="32"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
@@ -4972,16 +5018,16 @@
       <c r="A31" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
@@ -5015,22 +5061,22 @@
       <c r="A37" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="33" t="s">
         <v>651</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="33"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="29" t="s">
         <v>608</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
@@ -5066,16 +5112,16 @@
       <c r="A45" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="29" t="s">
         <v>611</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
@@ -5111,16 +5157,16 @@
       <c r="A51" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="C51" s="28"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
@@ -5156,16 +5202,16 @@
       <c r="A57" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="29" t="s">
         <v>616</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
@@ -5201,26 +5247,26 @@
       <c r="A63" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="31"/>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="29"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
@@ -5256,16 +5302,16 @@
       <c r="A71" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="30"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="29"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
@@ -5301,22 +5347,22 @@
       <c r="A77" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="C77" s="28"/>
+      <c r="C77" s="30"/>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="31" t="s">
         <v>625</v>
       </c>
-      <c r="C79" s="29"/>
+      <c r="C79" s="31"/>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="29"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
@@ -5352,16 +5398,16 @@
       <c r="A85" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="C85" s="28"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="C87" s="27"/>
+      <c r="C87" s="29"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
@@ -5397,16 +5443,16 @@
       <c r="A91" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="C91" s="28"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="29"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
@@ -5442,16 +5488,16 @@
       <c r="A97" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="C97" s="28"/>
+      <c r="C97" s="30"/>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="C99" s="27"/>
+      <c r="C99" s="29"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
@@ -5485,16 +5531,16 @@
       <c r="A103" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="30" t="s">
         <v>649</v>
       </c>
-      <c r="C103" s="28"/>
+      <c r="C103" s="30"/>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="C105" s="27"/>
+      <c r="C105" s="29"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
@@ -5530,13 +5576,35 @@
       <c r="A109" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="C109" s="28"/>
+      <c r="C109" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5553,28 +5621,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5982,8 +6028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10419,7 +10465,7 @@
       <c r="B193" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="C193" s="16" t="s">
+      <c r="C193" s="19" t="s">
         <v>214</v>
       </c>
       <c r="D193" s="16">
@@ -10741,7 +10787,7 @@
       <c r="B207" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="C207" s="16" t="s">
+      <c r="C207" s="19" t="s">
         <v>214</v>
       </c>
       <c r="D207" s="16">
@@ -13110,9 +13156,11 @@
     <hyperlink ref="C20" r:id="rId2" xr:uid="{6B2BA80A-6E5B-4BAF-911C-39851B7CAB19}"/>
     <hyperlink ref="C25" r:id="rId3" xr:uid="{4C26FDB1-87FF-45B9-8602-9E537610D689}"/>
     <hyperlink ref="C18" r:id="rId4" xr:uid="{4FEC2313-B826-42F1-AE76-BB72016D6B3E}"/>
+    <hyperlink ref="C207" r:id="rId5" xr:uid="{844A2DF2-288D-4B93-9AF1-F9BA6C357130}"/>
+    <hyperlink ref="C193" r:id="rId6" xr:uid="{4DEF3554-96C9-4958-935A-53C91338BFB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -13120,16 +13168,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="63.5703125" style="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="63.5703125" style="1"/>
     <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="71.140625" style="1" customWidth="1"/>
@@ -14424,24 +14472,39 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="32" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+    <row r="28" spans="1:28" s="25" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="25">
         <v>21</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="33">
-        <v>2</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="C28" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="17">
+        <v>2</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="F28" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="G28" s="25">
+        <v>2022</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>578</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="135" x14ac:dyDescent="0.25">
@@ -14608,7 +14671,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>32</v>
       </c>
@@ -14655,7 +14718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>33</v>
       </c>
@@ -14711,7 +14774,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>34</v>
       </c>
@@ -14749,7 +14812,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>35</v>
       </c>
@@ -14787,7 +14850,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>36</v>
       </c>
@@ -14828,7 +14891,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>37</v>
       </c>
@@ -14866,92 +14929,188 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>38</v>
       </c>
       <c r="B39" s="25">
         <v>11</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="16">
+      <c r="C39" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="17">
         <v>3</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="20" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F39" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="25">
+        <v>2020</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>39</v>
       </c>
       <c r="B40" s="25">
         <v>12</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="C40" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="17">
         <v>3</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="20" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F40" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="25">
+        <v>2021</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y40" s="25" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>40</v>
       </c>
       <c r="B41" s="25">
         <v>13</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="C41" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="17">
         <v>3</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="20" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F41" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="G41" s="25">
+        <v>2022</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>41</v>
       </c>
       <c r="B42" s="25">
         <v>14</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="C42" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="17">
         <v>3</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="20" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="F42" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" s="25">
+        <v>2022</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="U42" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="W42" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="Y42" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA42" s="25" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
         <v>42</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="27">
         <v>15</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="16">
+      <c r="C43" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="28">
         <v>3</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="34" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>43</v>
       </c>
@@ -14964,11 +15123,11 @@
       <c r="D44" s="16">
         <v>3</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="19" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>44</v>
       </c>
@@ -14981,11 +15140,11 @@
       <c r="D45" s="16">
         <v>3</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="19" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>45</v>
       </c>
@@ -14998,11 +15157,11 @@
       <c r="D46" s="16">
         <v>3</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="19" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>46</v>
       </c>
@@ -15015,11 +15174,11 @@
       <c r="D47" s="16">
         <v>3</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="19" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>47</v>
       </c>
@@ -15187,7 +15346,7 @@
       <c r="D52" s="16">
         <v>4</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="19" t="s">
         <v>731</v>
       </c>
     </row>
@@ -15782,9 +15941,21 @@
     <hyperlink ref="E27" r:id="rId11" xr:uid="{DCAA55D3-4160-410F-84B0-71250AB4770A}"/>
     <hyperlink ref="I27" r:id="rId12" xr:uid="{8CB1968C-B3AF-408C-8510-94A590880CAC}"/>
     <hyperlink ref="I28" r:id="rId13" xr:uid="{B2583784-954C-46D7-9CAC-2B0643E7D3FB}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{8385CBD8-72DB-468B-BC6A-84CA6FEF3A8B}"/>
+    <hyperlink ref="E39" r:id="rId15" xr:uid="{C09223F5-B100-4747-A9F9-5AAF0B456AF4}"/>
+    <hyperlink ref="E40" r:id="rId16" xr:uid="{FB087BEB-62F3-4102-A89F-9136E52FFEA9}"/>
+    <hyperlink ref="E41" r:id="rId17" xr:uid="{D02661BE-F32F-476A-915B-1E894BE5BD6C}"/>
+    <hyperlink ref="I41" r:id="rId18" xr:uid="{1BEB4AD7-0803-4529-9E70-FB8EAD1FD893}"/>
+    <hyperlink ref="E42" r:id="rId19" xr:uid="{0AC8D586-0CD4-4E9F-AD97-1CF6532B530D}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{CEC883E1-51D9-44E4-BBC4-842AA2EA9B5D}"/>
+    <hyperlink ref="E44" r:id="rId21" xr:uid="{99378B8B-241A-455E-AE36-248F372A1F3C}"/>
+    <hyperlink ref="E45" r:id="rId22" xr:uid="{170BBD13-03F9-4932-A647-A85E70834BDE}"/>
+    <hyperlink ref="E46" r:id="rId23" xr:uid="{2ADF7ACC-5C32-4933-A883-0ACEB5EE0DC0}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{E67ADA01-07F4-4FA6-BF97-7DA114F60BE7}"/>
+    <hyperlink ref="E52" r:id="rId25" xr:uid="{56B82BCC-27BF-4E66-B3FF-B4999B819CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57972B27-8BB0-42C3-B423-1119C1DE35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAACC7C-4F3F-47CD-A962-B102F9072B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="985">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -3325,12 +3325,15 @@
   <si>
     <t>Implementation questions</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1371%2Fjournal.pcbi.1009823</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3404,6 +3407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3456,7 +3467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3534,10 +3545,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5913,123 +5928,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.140625" style="33"/>
-    <col min="3" max="4" width="54.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="29.140625" style="33"/>
+    <col min="1" max="2" width="29.140625" style="35"/>
+    <col min="3" max="4" width="54.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="29.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>978</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="35" t="s">
         <v>982</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="35" t="s">
         <v>870</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="35" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>657</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="35" t="s">
         <v>840</v>
       </c>
     </row>
@@ -6314,10 +6329,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13395,8 +13410,8 @@
       <c r="A308">
         <v>5</v>
       </c>
-      <c r="B308" t="s">
-        <v>231</v>
+      <c r="B308" s="16" t="s">
+        <v>781</v>
       </c>
       <c r="C308" t="s">
         <v>15</v>
@@ -13414,61 +13429,61 @@
         <v>260</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="13">
         <v>5</v>
       </c>
-      <c r="B309" t="s">
-        <v>781</v>
-      </c>
-      <c r="C309" t="s">
+      <c r="B309" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C309" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="13">
         <v>13</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="13">
         <v>13</v>
       </c>
-      <c r="F309">
+      <c r="F309" s="13">
         <v>308</v>
       </c>
-      <c r="G309" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="13">
+      <c r="G309" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>5</v>
       </c>
-      <c r="B310" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="D310" s="13">
+      <c r="B310" t="s">
+        <v>231</v>
+      </c>
+      <c r="C310" t="s">
+        <v>742</v>
+      </c>
+      <c r="D310">
         <v>1</v>
       </c>
-      <c r="E310" s="13">
+      <c r="E310">
         <v>14</v>
       </c>
-      <c r="F310" s="13">
+      <c r="F310">
         <v>309</v>
       </c>
-      <c r="G310" s="13" t="s">
-        <v>234</v>
+      <c r="G310" s="14" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="311" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="13">
         <v>5</v>
       </c>
-      <c r="B311" s="22" t="s">
-        <v>895</v>
+      <c r="B311" s="13" t="s">
+        <v>894</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>894</v>
+        <v>689</v>
       </c>
       <c r="D311" s="13">
         <v>2</v>
@@ -13487,11 +13502,11 @@
       <c r="A312" s="13">
         <v>5</v>
       </c>
-      <c r="B312" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="C312" s="13" t="s">
-        <v>687</v>
+      <c r="B312" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>894</v>
       </c>
       <c r="D312" s="13">
         <v>3</v>
@@ -13510,8 +13525,8 @@
       <c r="A313" s="13">
         <v>5</v>
       </c>
-      <c r="B313" s="13" t="s">
-        <v>901</v>
+      <c r="B313" s="22" t="s">
+        <v>925</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>687</v>
@@ -13534,7 +13549,7 @@
         <v>5</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>687</v>
@@ -13557,9 +13572,9 @@
         <v>5</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="C315" s="16" t="s">
+        <v>902</v>
+      </c>
+      <c r="C315" s="13" t="s">
         <v>687</v>
       </c>
       <c r="D315" s="13">
@@ -13574,6 +13589,32 @@
       <c r="G315" s="13" t="s">
         <v>234</v>
       </c>
+    </row>
+    <row r="316" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="13">
+        <v>5</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D316" s="13">
+        <v>7</v>
+      </c>
+      <c r="E316" s="13">
+        <v>20</v>
+      </c>
+      <c r="F316" s="13">
+        <v>315</v>
+      </c>
+      <c r="G316" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13584,28 +13625,29 @@
     <hyperlink ref="C18" r:id="rId4" xr:uid="{4FEC2313-B826-42F1-AE76-BB72016D6B3E}"/>
     <hyperlink ref="C207" r:id="rId5" xr:uid="{844A2DF2-288D-4B93-9AF1-F9BA6C357130}"/>
     <hyperlink ref="C193" r:id="rId6" xr:uid="{4DEF3554-96C9-4958-935A-53C91338BFB5}"/>
-    <hyperlink ref="C310" r:id="rId7" xr:uid="{335AEDE7-6246-43C7-BE7D-0C4B200FC705}"/>
-    <hyperlink ref="B311" r:id="rId8" xr:uid="{42B35416-7843-40E9-92D9-C6E40ACF4C5F}"/>
-    <hyperlink ref="C311" r:id="rId9" xr:uid="{E708EB51-A150-430D-B3D8-238330929CC6}"/>
+    <hyperlink ref="C311" r:id="rId7" xr:uid="{335AEDE7-6246-43C7-BE7D-0C4B200FC705}"/>
+    <hyperlink ref="B312" r:id="rId8" xr:uid="{42B35416-7843-40E9-92D9-C6E40ACF4C5F}"/>
+    <hyperlink ref="C312" r:id="rId9" xr:uid="{E708EB51-A150-430D-B3D8-238330929CC6}"/>
     <hyperlink ref="C192" r:id="rId10" xr:uid="{62413A1D-49AF-4399-A13D-12209C48E87D}"/>
     <hyperlink ref="C190" r:id="rId11" xr:uid="{B25770F0-924A-4990-8CA5-076B79F544A4}"/>
     <hyperlink ref="B189" r:id="rId12" xr:uid="{E462E493-8C1C-4C7F-9BCF-69B2BFAA4007}"/>
-    <hyperlink ref="C315" r:id="rId13" xr:uid="{8DB7F4DA-6325-4A81-9F00-FD536D2CAD44}"/>
-    <hyperlink ref="B312" r:id="rId14" xr:uid="{C62B9156-7AC5-40D2-A4B2-12E391DE42B9}"/>
+    <hyperlink ref="C316" r:id="rId13" xr:uid="{8DB7F4DA-6325-4A81-9F00-FD536D2CAD44}"/>
+    <hyperlink ref="B313" r:id="rId14" xr:uid="{C62B9156-7AC5-40D2-A4B2-12E391DE42B9}"/>
+    <hyperlink ref="B308" r:id="rId15" xr:uid="{0622BBD8-3D85-490B-AC18-5F86EC759CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="82" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="82" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="W67" sqref="W67"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16456,124 +16498,79 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+    <row r="65" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="33">
+        <v>5</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B66" s="21">
         <v>12</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C66" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G66" s="1">
         <v>2020</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>742</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L65" s="1" t="s">
+      <c r="J66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="Y65" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+    <row r="67" spans="1:26" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="20">
+      <c r="B67" s="20">
         <v>13</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="20">
-        <v>5</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>894</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="G66" s="20">
-        <v>2021</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="J66" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="K66" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="R66" s="20" t="s">
-        <v>911</v>
-      </c>
-      <c r="U66" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="V66" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="W66" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="X66" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="Y66" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="Z66" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="20" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20">
-        <v>14</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>234</v>
@@ -16581,52 +16578,55 @@
       <c r="D67" s="20">
         <v>5</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>895</v>
+      <c r="E67" s="22" t="s">
+        <v>894</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G67" s="20">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>894</v>
+        <v>908</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>689</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K67" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="O67" s="20" t="s">
-        <v>922</v>
-      </c>
       <c r="R67" s="20" t="s">
-        <v>920</v>
-      </c>
-      <c r="S67" s="20" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>921</v>
+        <v>913</v>
+      </c>
+      <c r="V67" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="W67" s="20" t="s">
+        <v>909</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="Y67" s="20" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" s="20" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+      <c r="Z67" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="20" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>234</v>
@@ -16634,20 +16634,20 @@
       <c r="D68" s="20">
         <v>5</v>
       </c>
-      <c r="E68" s="22" t="s">
-        <v>925</v>
+      <c r="E68" s="24" t="s">
+        <v>895</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G68" s="20">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>687</v>
+        <v>894</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>234</v>
@@ -16656,36 +16656,30 @@
         <v>234</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="P68" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="Q68" s="20" t="s">
-        <v>933</v>
+        <v>922</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="S68" s="20" t="s">
+        <v>917</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="V68" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="W68" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="X68" s="24" t="s">
-        <v>926</v>
+        <v>921</v>
+      </c>
+      <c r="X68" s="20" t="s">
+        <v>918</v>
       </c>
       <c r="Y68" s="20" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="20" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>234</v>
@@ -16694,16 +16688,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="G69" s="20">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>687</v>
@@ -16714,16 +16708,37 @@
       <c r="K69" s="20" t="s">
         <v>234</v>
       </c>
+      <c r="O69" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="P69" s="24" t="s">
+        <v>929</v>
+      </c>
       <c r="Q69" s="20" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="U69" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="V69" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="W69" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="X69" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>234</v>
@@ -16732,16 +16747,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>862</v>
+        <v>935</v>
       </c>
       <c r="G70" s="20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>687</v>
@@ -16750,18 +16765,18 @@
         <v>234</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="L70" s="20" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="20" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>234</v>
@@ -16770,16 +16785,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>939</v>
+        <v>862</v>
       </c>
       <c r="G71" s="20">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>687</v>
@@ -16788,12 +16803,50 @@
         <v>234</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="W71" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="20" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>70</v>
+      </c>
+      <c r="B72" s="20">
+        <v>18</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="20">
+        <v>5</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>939</v>
+      </c>
+      <c r="G72" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W72" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="Y71" s="20" t="s">
+      <c r="Y72" s="20" t="s">
         <v>942</v>
       </c>
     </row>
@@ -16824,17 +16877,17 @@
     <hyperlink ref="E47" r:id="rId23" xr:uid="{2ADF7ACC-5C32-4933-A883-0ACEB5EE0DC0}"/>
     <hyperlink ref="E48" r:id="rId24" xr:uid="{E67ADA01-07F4-4FA6-BF97-7DA114F60BE7}"/>
     <hyperlink ref="E53" r:id="rId25" xr:uid="{56B82BCC-27BF-4E66-B3FF-B4999B819CC0}"/>
-    <hyperlink ref="I66" r:id="rId26" xr:uid="{6915890E-6F6C-47D2-BCD9-9EB7C53B08B1}"/>
-    <hyperlink ref="E67" r:id="rId27" xr:uid="{C3D6E434-416D-4E88-B579-83AB30CFBFD4}"/>
+    <hyperlink ref="I67" r:id="rId26" xr:uid="{6915890E-6F6C-47D2-BCD9-9EB7C53B08B1}"/>
+    <hyperlink ref="E68" r:id="rId27" xr:uid="{C3D6E434-416D-4E88-B579-83AB30CFBFD4}"/>
     <hyperlink ref="I43" r:id="rId28" xr:uid="{30CA4143-E4DE-48CF-AAD8-7C627084AF14}"/>
     <hyperlink ref="E46" r:id="rId29" xr:uid="{74819346-800C-4125-ABD8-967DE3830EAA}"/>
-    <hyperlink ref="E66" r:id="rId30" xr:uid="{D5E38329-BFCB-4E94-B9FC-B1B6A956137A}"/>
-    <hyperlink ref="E68" r:id="rId31" xr:uid="{74DC905D-C9DE-4AA7-A064-65F294D821E0}"/>
-    <hyperlink ref="X68" r:id="rId32" display="https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html" xr:uid="{CEE401F5-55B0-49EB-A1CB-CFBCDC018158}"/>
-    <hyperlink ref="P68" r:id="rId33" xr:uid="{84D29D8F-6F4E-4F71-8F47-224F03B3FDA4}"/>
-    <hyperlink ref="E69" r:id="rId34" xr:uid="{237717EA-C25C-44D8-BF55-1E52F9B507A8}"/>
-    <hyperlink ref="E70" r:id="rId35" xr:uid="{C4540FAB-077D-4BB8-AA28-C8AE2050BF4B}"/>
-    <hyperlink ref="E71" r:id="rId36" xr:uid="{69894B5A-4387-4465-B696-248FB9FAB709}"/>
+    <hyperlink ref="E67" r:id="rId30" xr:uid="{D5E38329-BFCB-4E94-B9FC-B1B6A956137A}"/>
+    <hyperlink ref="E69" r:id="rId31" xr:uid="{74DC905D-C9DE-4AA7-A064-65F294D821E0}"/>
+    <hyperlink ref="X69" r:id="rId32" display="https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html" xr:uid="{CEE401F5-55B0-49EB-A1CB-CFBCDC018158}"/>
+    <hyperlink ref="P69" r:id="rId33" xr:uid="{84D29D8F-6F4E-4F71-8F47-224F03B3FDA4}"/>
+    <hyperlink ref="E70" r:id="rId34" xr:uid="{237717EA-C25C-44D8-BF55-1E52F9B507A8}"/>
+    <hyperlink ref="E71" r:id="rId35" xr:uid="{C4540FAB-077D-4BB8-AA28-C8AE2050BF4B}"/>
+    <hyperlink ref="E72" r:id="rId36" xr:uid="{69894B5A-4387-4465-B696-248FB9FAB709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId37"/>
@@ -16843,12 +16896,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19712,121 +19765,82 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="33">
+        <v>5</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21">
         <v>64</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B66" s="21">
         <v>12</v>
       </c>
-      <c r="C65" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C66" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="1">
         <v>5</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G66" s="1">
         <v>2020</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>742</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="L65" s="1" t="s">
+      <c r="J66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="Y65" s="1" t="s">
+      <c r="Y66" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="21" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+    <row r="67" spans="1:26" s="21" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21">
         <v>65</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B67" s="21">
         <v>13</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="21">
-        <v>5</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>894</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>907</v>
-      </c>
-      <c r="G66" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>908</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="J66" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="R66" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="U66" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="V66" s="21" t="s">
-        <v>914</v>
-      </c>
-      <c r="W66" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="X66" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y66" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z66" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="21" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>66</v>
-      </c>
-      <c r="B67" s="21">
-        <v>14</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>234</v>
@@ -19834,58 +19848,55 @@
       <c r="D67" s="21">
         <v>5</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>895</v>
+      <c r="E67" s="17" t="s">
+        <v>894</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G67" s="21">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>894</v>
+        <v>908</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>689</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="O67" s="21" t="s">
-        <v>967</v>
-      </c>
       <c r="R67" s="21" t="s">
-        <v>920</v>
-      </c>
-      <c r="S67" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="T67" s="21" t="s">
-        <v>968</v>
+        <v>911</v>
       </c>
       <c r="U67" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="V67" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="V67" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="X67" s="31" t="s">
-        <v>969</v>
+      <c r="W67" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="X67" s="21" t="s">
+        <v>532</v>
       </c>
       <c r="Y67" s="21" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" s="21" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="Z67" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="21" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>234</v>
@@ -19893,20 +19904,20 @@
       <c r="D68" s="21">
         <v>5</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>925</v>
+      <c r="E68" s="31" t="s">
+        <v>895</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G68" s="21">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>687</v>
+        <v>894</v>
       </c>
       <c r="J68" s="21" t="s">
         <v>234</v>
@@ -19915,39 +19926,36 @@
         <v>234</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>964</v>
-      </c>
-      <c r="P68" s="31" t="s">
-        <v>929</v>
-      </c>
-      <c r="Q68" s="21" t="s">
-        <v>525</v>
+        <v>967</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>970</v>
+        <v>920</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="T68" s="21" t="s">
+        <v>968</v>
       </c>
       <c r="U68" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="V68" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="W68" s="21" t="s">
-        <v>971</v>
+      <c r="V68" s="31" t="s">
+        <v>914</v>
       </c>
       <c r="X68" s="31" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="Y68" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="21" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>234</v>
@@ -19956,16 +19964,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>901</v>
+        <v>925</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="G69" s="21">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>687</v>
@@ -19976,19 +19984,40 @@
       <c r="K69" s="21" t="s">
         <v>234</v>
       </c>
+      <c r="O69" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="P69" s="31" t="s">
+        <v>929</v>
+      </c>
       <c r="Q69" s="21" t="s">
         <v>525</v>
       </c>
       <c r="R69" s="21" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" s="21" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+      <c r="U69" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="V69" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="W69" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="X69" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="Y69" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>234</v>
@@ -19997,16 +20026,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>862</v>
+        <v>935</v>
       </c>
       <c r="G70" s="21">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>687</v>
@@ -20015,18 +20044,21 @@
         <v>234</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L70" s="21" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="21" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="Q70" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="R70" s="21" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="21" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>234</v>
@@ -20035,16 +20067,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>939</v>
+        <v>862</v>
       </c>
       <c r="G71" s="21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>687</v>
@@ -20053,15 +20085,53 @@
         <v>234</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="W71" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="21" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
+        <v>70</v>
+      </c>
+      <c r="B72" s="21">
+        <v>18</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="21">
+        <v>5</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="G72" s="21">
+        <v>2021</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="W72" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="X71" s="21" t="s">
+      <c r="X72" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="Y71" s="21" t="s">
+      <c r="Y72" s="21" t="s">
         <v>500</v>
       </c>
     </row>
@@ -20093,20 +20163,20 @@
     <hyperlink ref="E48" r:id="rId24" xr:uid="{6F336FAC-90FF-4CBB-88BD-44641F396EE7}"/>
     <hyperlink ref="I43" r:id="rId25" xr:uid="{3AC43108-AAC2-47F7-88B8-9AC0975864DE}"/>
     <hyperlink ref="E46" r:id="rId26" xr:uid="{F41E3AD2-230C-42F5-AC0E-0579C4ACFAAB}"/>
-    <hyperlink ref="I66" r:id="rId27" xr:uid="{11677FE7-2FE0-4698-B224-E8398B0FD198}"/>
-    <hyperlink ref="E67" r:id="rId28" xr:uid="{3A5E6233-9712-4A89-A5B0-4BE7B661CF86}"/>
-    <hyperlink ref="E66" r:id="rId29" xr:uid="{C67C531A-07B2-4FC2-8990-08A112518E24}"/>
-    <hyperlink ref="E68" r:id="rId30" xr:uid="{3E45FB59-A96C-4170-BE8F-DBBE2CB5B548}"/>
-    <hyperlink ref="X68" r:id="rId31" display="https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html" xr:uid="{580BF8CB-FBEA-4C4F-97FA-0395812B8FB1}"/>
-    <hyperlink ref="P68" r:id="rId32" xr:uid="{5C0F0F3E-01B1-4A2E-965C-77067FD9C090}"/>
-    <hyperlink ref="E69" r:id="rId33" xr:uid="{52C88912-2A62-45C7-AB35-50E8E0A5D3DD}"/>
-    <hyperlink ref="E70" r:id="rId34" xr:uid="{EEC2FDFC-F57D-4C81-9B5E-C990F8247DD0}"/>
-    <hyperlink ref="E71" r:id="rId35" xr:uid="{9D78A968-102D-482A-B3F7-200855DF420A}"/>
+    <hyperlink ref="I67" r:id="rId27" xr:uid="{11677FE7-2FE0-4698-B224-E8398B0FD198}"/>
+    <hyperlink ref="E68" r:id="rId28" xr:uid="{3A5E6233-9712-4A89-A5B0-4BE7B661CF86}"/>
+    <hyperlink ref="E67" r:id="rId29" xr:uid="{C67C531A-07B2-4FC2-8990-08A112518E24}"/>
+    <hyperlink ref="E69" r:id="rId30" xr:uid="{3E45FB59-A96C-4170-BE8F-DBBE2CB5B548}"/>
+    <hyperlink ref="X69" r:id="rId31" display="https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html" xr:uid="{580BF8CB-FBEA-4C4F-97FA-0395812B8FB1}"/>
+    <hyperlink ref="P69" r:id="rId32" xr:uid="{5C0F0F3E-01B1-4A2E-965C-77067FD9C090}"/>
+    <hyperlink ref="E70" r:id="rId33" xr:uid="{52C88912-2A62-45C7-AB35-50E8E0A5D3DD}"/>
+    <hyperlink ref="E71" r:id="rId34" xr:uid="{EEC2FDFC-F57D-4C81-9B5E-C990F8247DD0}"/>
+    <hyperlink ref="E72" r:id="rId35" xr:uid="{9D78A968-102D-482A-B3F7-200855DF420A}"/>
     <hyperlink ref="N3" r:id="rId36" xr:uid="{C38558B1-235B-4D4F-8D2F-684FFFB46DA2}"/>
     <hyperlink ref="V23" r:id="rId37" xr:uid="{A44C64C4-8095-445E-9884-ADE677402DD6}"/>
     <hyperlink ref="N4" r:id="rId38" xr:uid="{4107C16C-CB7F-4DC7-B0EA-9DF0BE945753}"/>
-    <hyperlink ref="V67" r:id="rId39" xr:uid="{44F237A5-9F53-440F-84A3-C195A31B17C8}"/>
-    <hyperlink ref="X67" r:id="rId40" xr:uid="{910120DD-9F42-4524-AE08-11839E3FFE08}"/>
+    <hyperlink ref="V68" r:id="rId39" xr:uid="{44F237A5-9F53-440F-84A3-C195A31B17C8}"/>
+    <hyperlink ref="X68" r:id="rId40" xr:uid="{910120DD-9F42-4524-AE08-11839E3FFE08}"/>
     <hyperlink ref="E53" r:id="rId41" xr:uid="{A3763B5F-4831-407C-A3E5-3C153DCF8DBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAACC7C-4F3F-47CD-A962-B102F9072B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD635CD4-E345-40F5-AFBE-AE6EA4E9C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
-    <sheet name="fair4rsv1.0Action" sheetId="7" r:id="rId2"/>
-    <sheet name="fair4rsv1.0ActionCategory" sheetId="8" r:id="rId3"/>
+    <sheet name="fair4rsv1.0Instructions" sheetId="7" r:id="rId2"/>
+    <sheet name="fair4rsv1.0InstructionsCategory" sheetId="8" r:id="rId3"/>
     <sheet name="searchStrategy" sheetId="1" r:id="rId4"/>
     <sheet name="searchAllResultsList" sheetId="4" r:id="rId5"/>
     <sheet name="resourcesReview" sheetId="5" r:id="rId6"/>
@@ -2914,12 +2914,6 @@
     <t>Alves</t>
   </si>
   <si>
-    <t>Archive on a repository</t>
-  </si>
-  <si>
-    <t>Register on a registry</t>
-  </si>
-  <si>
     <t>What repositories can be used for archiving biomedical research software?</t>
   </si>
   <si>
@@ -3327,6 +3321,12 @@
   </si>
   <si>
     <t>https://doi.org/10.1371%2Fjournal.pcbi.1009823</t>
+  </si>
+  <si>
+    <t>Archive in a repository</t>
+  </si>
+  <si>
+    <t>Register in a registry</t>
   </si>
 </sst>
 </file>
@@ -5928,8 +5928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,10 +5951,10 @@
         <v>652</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
         <v>663</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -5985,16 +5985,16 @@
         <v>661</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>843</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -6019,13 +6019,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>868</v>
+        <v>983</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>655</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>839</v>
@@ -6036,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>869</v>
+        <v>984</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>657</v>
@@ -13434,7 +13434,7 @@
         <v>5</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>15</v>
@@ -13480,7 +13480,7 @@
         <v>5</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C311" s="22" t="s">
         <v>689</v>
@@ -13503,10 +13503,10 @@
         <v>5</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D312" s="13">
         <v>3</v>
@@ -13526,7 +13526,7 @@
         <v>5</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>687</v>
@@ -13549,7 +13549,7 @@
         <v>5</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>687</v>
@@ -13572,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>687</v>
@@ -13595,7 +13595,7 @@
         <v>5</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C316" s="22" t="s">
         <v>687</v>
@@ -14889,25 +14889,25 @@
         <v>234</v>
       </c>
       <c r="L26" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q26" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="N26" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="O26" s="20" t="s">
+      <c r="S26" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="Y26" s="20" t="s">
         <v>873</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>876</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="U26" s="20" t="s">
-        <v>957</v>
-      </c>
-      <c r="Y26" s="20" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14927,13 +14927,13 @@
         <v>677</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G27" s="20">
         <v>2021</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I27" s="24" t="s">
         <v>577</v>
@@ -14945,7 +14945,7 @@
         <v>260</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14965,13 +14965,13 @@
         <v>673</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G28" s="20">
         <v>2022</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>577</v>
@@ -15428,7 +15428,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>214</v>
@@ -15440,7 +15440,7 @@
         <v>260</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>214</v>
@@ -15478,7 +15478,7 @@
         <v>234</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15504,7 +15504,7 @@
         <v>2022</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>214</v>
@@ -15539,7 +15539,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>214</v>
@@ -15551,22 +15551,22 @@
         <v>234</v>
       </c>
       <c r="L42" s="20" t="s">
+        <v>886</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="W42" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y42" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="O42" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="U42" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="W42" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="Y42" s="20" t="s">
+      <c r="AA42" s="20" t="s">
         <v>890</v>
-      </c>
-      <c r="AA42" s="20" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15592,7 +15592,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>214</v>
@@ -15627,7 +15627,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>214</v>
@@ -15662,7 +15662,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>214</v>
@@ -15674,7 +15674,7 @@
         <v>260</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15700,7 +15700,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>214</v>
@@ -15712,7 +15712,7 @@
         <v>260</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15738,7 +15738,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>214</v>
@@ -15773,7 +15773,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>214</v>
@@ -15957,13 +15957,13 @@
         <v>728</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G53" s="21">
         <v>2022</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>393</v>
@@ -15975,7 +15975,7 @@
         <v>260</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
@@ -16503,7 +16503,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I65" s="33" t="s">
         <v>15</v>
@@ -16579,16 +16579,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G67" s="20">
         <v>2021</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>689</v>
@@ -16600,22 +16600,22 @@
         <v>234</v>
       </c>
       <c r="R67" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="U67" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>913</v>
-      </c>
       <c r="V67" s="20" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="X67" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="Y67" s="20" t="s">
         <v>910</v>
-      </c>
-      <c r="Y67" s="20" t="s">
-        <v>912</v>
       </c>
       <c r="Z67" s="20" t="s">
         <v>295</v>
@@ -16635,43 +16635,43 @@
         <v>5</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G68" s="20">
         <v>2018</v>
       </c>
       <c r="H68" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="S68" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="I68" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="J68" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="R68" s="20" t="s">
-        <v>920</v>
-      </c>
-      <c r="S68" s="20" t="s">
+      <c r="U68" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="X68" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="Y68" s="20" t="s">
         <v>917</v>
-      </c>
-      <c r="U68" s="20" t="s">
-        <v>921</v>
-      </c>
-      <c r="X68" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="Y68" s="20" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="20" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -16688,16 +16688,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G69" s="20">
         <v>2022</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I69" s="20" t="s">
         <v>687</v>
@@ -16709,28 +16709,28 @@
         <v>234</v>
       </c>
       <c r="O69" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="P69" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q69" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="U69" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="V69" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="W69" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="X69" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y69" s="20" t="s">
         <v>928</v>
-      </c>
-      <c r="P69" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="Q69" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="U69" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="V69" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="W69" s="20" t="s">
-        <v>927</v>
-      </c>
-      <c r="X69" s="24" t="s">
-        <v>926</v>
-      </c>
-      <c r="Y69" s="20" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="70" spans="1:26" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16747,16 +16747,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G70" s="20">
         <v>2019</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I70" s="20" t="s">
         <v>687</v>
@@ -16768,7 +16768,7 @@
         <v>234</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:26" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16785,7 +16785,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F71" s="20" t="s">
         <v>862</v>
@@ -16794,7 +16794,7 @@
         <v>2020</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>687</v>
@@ -16806,7 +16806,7 @@
         <v>260</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="20" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16823,16 +16823,16 @@
         <v>5</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G72" s="20">
         <v>2021</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I72" s="20" t="s">
         <v>687</v>
@@ -16844,10 +16844,10 @@
         <v>234</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="Y72" s="20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -16898,7 +16898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
@@ -17061,22 +17061,22 @@
         <v>848</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>486</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="Y2" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="AA2" s="21" t="s">
         <v>945</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="21" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17114,19 +17114,19 @@
         <v>849</v>
       </c>
       <c r="M3" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>948</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="O3" s="21" t="s">
+      <c r="W3" s="21" t="s">
         <v>949</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>951</v>
       </c>
       <c r="X3" s="21" t="s">
         <v>488</v>
@@ -17164,7 +17164,7 @@
         <v>234</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>486</v>
@@ -18030,16 +18030,16 @@
         <v>534</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="Y23" s="21" t="s">
         <v>500</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AB23" s="21" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="21" customFormat="1" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18153,25 +18153,25 @@
         <v>234</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N26" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>958</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="U26" s="21" t="s">
         <v>956</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>961</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>960</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>958</v>
       </c>
       <c r="Y26" s="21" t="s">
         <v>499</v>
@@ -18194,13 +18194,13 @@
         <v>677</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G27" s="21">
         <v>2021</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>577</v>
@@ -18212,7 +18212,7 @@
         <v>260</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="21" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -18232,13 +18232,13 @@
         <v>673</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G28" s="21">
         <v>2022</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>577</v>
@@ -18698,7 +18698,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>214</v>
@@ -18710,7 +18710,7 @@
         <v>260</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18736,7 +18736,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>214</v>
@@ -18748,7 +18748,7 @@
         <v>234</v>
       </c>
       <c r="Y40" s="21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18774,7 +18774,7 @@
         <v>2022</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>214</v>
@@ -18809,7 +18809,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>214</v>
@@ -18821,16 +18821,16 @@
         <v>234</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="U42" s="21" t="s">
         <v>542</v>
       </c>
       <c r="W42" s="21" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Y42" s="21" t="s">
         <v>500</v>
@@ -18859,7 +18859,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>214</v>
@@ -18894,7 +18894,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>214</v>
@@ -18906,7 +18906,7 @@
         <v>260</v>
       </c>
       <c r="AA44" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:27" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -18932,7 +18932,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I45" s="21" t="s">
         <v>214</v>
@@ -18944,7 +18944,7 @@
         <v>260</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -18970,7 +18970,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I46" s="21" t="s">
         <v>214</v>
@@ -18982,7 +18982,7 @@
         <v>260</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -19008,7 +19008,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I47" s="21" t="s">
         <v>214</v>
@@ -19043,7 +19043,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I48" s="21" t="s">
         <v>214</v>
@@ -19230,13 +19230,13 @@
         <v>728</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G53" s="21">
         <v>2022</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>393</v>
@@ -19248,7 +19248,7 @@
         <v>260</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19773,7 +19773,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -19849,16 +19849,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G67" s="21">
         <v>2021</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>689</v>
@@ -19870,13 +19870,13 @@
         <v>234</v>
       </c>
       <c r="R67" s="21" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="U67" s="21" t="s">
         <v>523</v>
       </c>
       <c r="V67" s="21" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="W67" s="21" t="s">
         <v>487</v>
@@ -19905,19 +19905,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G68" s="21">
         <v>2018</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J68" s="21" t="s">
         <v>234</v>
@@ -19926,25 +19926,25 @@
         <v>234</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="R68" s="21" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="S68" s="21" t="s">
         <v>497</v>
       </c>
       <c r="T68" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="U68" s="21" t="s">
         <v>542</v>
       </c>
       <c r="V68" s="31" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="X68" s="31" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="Y68" s="21" t="s">
         <v>559</v>
@@ -19964,16 +19964,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G69" s="21">
         <v>2022</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>687</v>
@@ -19985,28 +19985,28 @@
         <v>234</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Q69" s="21" t="s">
         <v>525</v>
       </c>
       <c r="R69" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="U69" s="21" t="s">
         <v>542</v>
       </c>
       <c r="V69" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="W69" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="X69" s="31" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Y69" s="21" t="s">
         <v>500</v>
@@ -20026,16 +20026,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G70" s="21">
         <v>2019</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>687</v>
@@ -20050,7 +20050,7 @@
         <v>525</v>
       </c>
       <c r="R70" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:26" s="21" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20067,7 +20067,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>862</v>
@@ -20076,7 +20076,7 @@
         <v>2020</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>687</v>
@@ -20088,7 +20088,7 @@
         <v>260</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="21" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20105,16 +20105,16 @@
         <v>5</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G72" s="21">
         <v>2021</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>687</v>
@@ -20126,10 +20126,10 @@
         <v>234</v>
       </c>
       <c r="W72" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="Y72" s="21" t="s">
         <v>500</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD635CD4-E345-40F5-AFBE-AE6EA4E9C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453E98A-4B57-41C1-8E75-CA13B73903DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
     <sheet name="fair4rsv1.0Instructions" sheetId="7" r:id="rId2"/>
     <sheet name="fair4rsv1.0InstructionsCategory" sheetId="8" r:id="rId3"/>
-    <sheet name="searchStrategy" sheetId="1" r:id="rId4"/>
-    <sheet name="searchAllResultsList" sheetId="4" r:id="rId5"/>
+    <sheet name="reviewStrategy" sheetId="1" r:id="rId4"/>
+    <sheet name="resourcesList" sheetId="4" r:id="rId5"/>
     <sheet name="resourcesReview" sheetId="5" r:id="rId6"/>
     <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -5928,8 +5928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,7 +6331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
       <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\FAIR-BioRS-data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453E98A-4B57-41C1-8E75-CA13B73903DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07E5472-3683-4758-8490-1683B06FE742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="987">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -1743,9 +1743,6 @@
     <t>Zenodo; HAL; Software Heritage; CRAN; PyPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop with a version control system </t>
-  </si>
-  <si>
     <t>Source code</t>
   </si>
   <si>
@@ -1765,9 +1762,6 @@
   </si>
   <si>
     <t>Jimenez</t>
-  </si>
-  <si>
-    <t>Develop with a version control system (GitHub, Bitbucket); Use container technologies (Docker)</t>
   </si>
   <si>
     <t>README; GitHub pages; ReadTheDoc</t>
@@ -1793,9 +1787,6 @@
     <t>Software vs. data in the context of citation</t>
   </si>
   <si>
-    <t>Make code modular; Have code level documentation; Provide tests; Develop with a version control system</t>
-  </si>
-  <si>
     <t>https://guide.esciencecenter.nl/#/; https://journals.plos.org/plosbiology/article?id=10.1371/journal.pbio.1001745; https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1005510</t>
   </si>
   <si>
@@ -1814,16 +1805,10 @@
     <t>bio.tools; Research Software Directory; rOpenSci Project; Zenodo</t>
   </si>
   <si>
-    <t>Source code; Input data; Result data</t>
-  </si>
-  <si>
     <t>Figshare; Zenodo; ModelDB</t>
   </si>
   <si>
     <t>Clement-Fontaine</t>
-  </si>
-  <si>
-    <t>Make code modular; Use container technologies (Docker); Develop with a version control system (GitHub)</t>
   </si>
   <si>
     <t>Citation File Format; CodeMeta</t>
@@ -1860,9 +1845,6 @@
     <t>https://choosealicense.com/</t>
   </si>
   <si>
-    <t>Develop with a version control system (GitHub, Bitbucket, GitLab)</t>
-  </si>
-  <si>
     <t>CodeMeta; Citation File Format</t>
   </si>
   <si>
@@ -1878,9 +1860,6 @@
     <t>Use container technologies (Docker, Singularity)</t>
   </si>
   <si>
-    <t>Develop with a version control system (GitHub, Bitbucket); Have code level documentation; Use container technologies (Docker)</t>
-  </si>
-  <si>
     <t>Sphinx3; Javadoc</t>
   </si>
   <si>
@@ -1893,24 +1872,15 @@
     <t>Zenodo; Conda; Bioconductor; Dockstore</t>
   </si>
   <si>
-    <t>Develop with a version control system; Provide tests; Include sample data</t>
-  </si>
-  <si>
     <t>Figshare</t>
   </si>
   <si>
-    <t>Develop with a version control system</t>
-  </si>
-  <si>
     <t>A CITATION file</t>
   </si>
   <si>
     <t>CRAN; NanoHub; Dataverse; Zenodo; Figshare</t>
   </si>
   <si>
-    <t>Develop with a version control system; Record dependencies (requirement.txt); Use container technologies (Docker, Singularity); Have code level documentation</t>
-  </si>
-  <si>
     <t>https://www.re3data.org/</t>
   </si>
   <si>
@@ -1921,9 +1891,6 @@
   </si>
   <si>
     <t xml:space="preserve">"This paper focuses on these first accessible skills and perspectivesâ€”the "good enough" practicesâ€”for scientific computing: a minimum set of tools and techniques that we believe every researcher can and should consider adopting." </t>
-  </si>
-  <si>
-    <t>Develop with a version control system (GitHub, Bitbucket, GitLab); Have code level documentation; Provide tests; Record dependencies (requirement.txt, README)</t>
   </si>
   <si>
     <t>Permissive licenses; MIT; BSD; Apache 2.0</t>
@@ -2832,14 +2799,6 @@
 is mandatory, gammaShiny is under a GNU General Public Licence v3.0 (R1)</t>
   </si>
   <si>
-    <t xml:space="preserve">the publicly accessible project repository on GitHub includes detailed information about its development. The code includes
-dependencies to external software packages, such as Thermo Scientific’s MSFileReader library (R2)
-and refers to other objects such as websites (I2)
-and the GitHub repository has detailed records of the development history (R1)
-The code includes dependencies to other software, such as various Python libraries (R2) 
-</t>
-  </si>
-  <si>
     <t>The archived versions of gammaShiny’s source code in Software Heritage include a codemeta.json file, identifiable with a SWHID, where other metadata is available including dependencies named in CodeMeta - ‘softwareRequirements’(R2)</t>
   </si>
   <si>
@@ -2925,20 +2884,412 @@
 functioning software, and for ensuring that it works as intended</t>
   </si>
   <si>
-    <t>where the software will be stored during development (e.g. GitHub, GitLab, etc.)
-Also the choice of the versioning system will narrow down available online services that can be used to share code (e.g. BitBucket only supports Git). Using an open GitHub repository will make it easier for others to reuse and contribute. On the other hand, using a local institutional repository (e.g. local GitLab instance) may be a solution preferred by the specific organisation.
-(inline documentation, docstrings etc.). It is also important to ensure that the code functions as intended (e.g. via unit tests or doctests) 
-Providing tests as extensively as possible (ideally through automated processes), in order to ensure that the documented functionality is stable, as well as identifying potential bugs and/or issues.
-The most crucial aspect here is to ensure the (re-)use and reproducibility
-of the software, by clearly documenting any OS/Software/hardware dependencies. This can be achieved through different methods (incl. registry and package managers, containerisation, etc.).</t>
-  </si>
-  <si>
     <t>"ELIXIR has developed a low-barrier SMP, specifically tailored for life science researchers, aligned to the FAIR Research Software principles. Starting from the Four Recommendations for Open Source Software, the ELIXIR SMP was iteratively refined by surveying the practices of the community and incorporating the received feedback."
 "The primary goal of the ELIXIR SMP is to encourage wider adoption by Life Science researchers, and be as inclusive as possible to the various levels of technical expertise, while also having an explicit connection to the FAIR principles for Research Software"
 "encouraged to publish the software to a software-oriented journal (e.g. JOSS, Software X, etc)"</t>
   </si>
   <si>
     <t>Additionally, software may also be deposited in archiving services (such as the Software Heritage Foundation - SWH), or general repositories (such as Zenodo), ensuring a persistent identifier (such as Digital Object Identifiers - DOI)</t>
+  </si>
+  <si>
+    <t>Woodley</t>
+  </si>
+  <si>
+    <t>CSCCE Community Profile: The FAIR for Research Software (FAIR4RS) Working Group</t>
+  </si>
+  <si>
+    <t>This profile showcases the FAIR for Research Software (FAIR4RS) Working Group, and is part of a second collection of profiles published in July 2021</t>
+  </si>
+  <si>
+    <t>A National Agenda for Research Software</t>
+  </si>
+  <si>
+    <t>Australian Research Data Commons</t>
+  </si>
+  <si>
+    <t>Toward defining and implementing FAIR for research software</t>
+  </si>
+  <si>
+    <t>High-level overview of FAIR4RS work</t>
+  </si>
+  <si>
+    <t>Software as a first class output in a FAIR ecosystem</t>
+  </si>
+  <si>
+    <t>Archive source code in Software Heritage</t>
+  </si>
+  <si>
+    <t>FAIR4RS Roadmap Report</t>
+  </si>
+  <si>
+    <t>FAIR4RS: Adoption support</t>
+  </si>
+  <si>
+    <t>Summaries adoption of FAIR4RS by different communities</t>
+  </si>
+  <si>
+    <t>AGU: a link to where the software is being actively developed, often a
+GitHub repository</t>
+  </si>
+  <si>
+    <t>AGU: Instructions to authors to preserve their software in a repository (authors often choose
+Zenodo)
+ESMAValTool: Having a globally unique and persistent identifier, with distinct identifiers for different
+versions by being indexed in Zenodo: the tool consists of two components, with different
+identifiers for versions and are indexed in Zenodo</t>
+  </si>
+  <si>
+    <t>ESMAVaTool: The software is described with rich and searchable metadata by having a citation file
+(CFF)</t>
+  </si>
+  <si>
+    <t>ESMAValTool: being indexed in the Research Software Directory, (https://research-software.nl/software/esmvaltool), PyPI
+(https://pypi.org/project/ESMValTool/), and Conda-forge (https://anaconda.org/conda-forge/esmvaltool)</t>
+  </si>
+  <si>
+    <t>ESMValGroup: It has an Apache 2.0 licence</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5281/zenodo.4706164</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.2159713</t>
+  </si>
+  <si>
+    <t>The Overlap Between FAIR for Research Software and Open Science</t>
+  </si>
+  <si>
+    <t>FAIR4RS Software (FAIR4RS)</t>
+  </si>
+  <si>
+    <t>A Survey on Adoption Guidelines for the FAIR4RS Principles</t>
+  </si>
+  <si>
+    <t>Good discussion on current gaps for implementing the FAIR4RS principles
+Summarize overall findings from reviewed resources. The associated dataset (10.5281/zenodo.6375540) contains more information relevant to our work</t>
+  </si>
+  <si>
+    <t>A Survey on Adoption Guidelines for the FAIR4RS Principles: Dataset</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48440/os.helmholtz.041</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4327147</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.4629635</t>
+  </si>
+  <si>
+    <t>Not relevant directly but provide relevant resources. Most of them are already in our review resources but some new ones have been added in category 5</t>
+  </si>
+  <si>
+    <t>FAIR Software and FAIR ML Models</t>
+  </si>
+  <si>
+    <t>FAIR4RS - FAIR for Research Software</t>
+  </si>
+  <si>
+    <t>Erdmann</t>
+  </si>
+  <si>
+    <t>Software Citation Checklist</t>
+  </si>
+  <si>
+    <t>Decide on and use an open-source license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the choose an open-source license site (https://choosealicense.com) to decide </t>
+  </si>
+  <si>
+    <t>Plan to capture information that will be vital to describing and citing your software later including authors (contributors), project/software name, releases (versions), coding standards, dependencies, frameworks, tests, and sustainability</t>
+  </si>
+  <si>
+    <t>Making your code citable via Zenodo and GitHub</t>
+  </si>
+  <si>
+    <t>the CodeMeta file that is created
+Use the Citation File Format</t>
+  </si>
+  <si>
+    <t>https://citation-file-format.github.io/</t>
+  </si>
+  <si>
+    <t>Checklist for a Software Management Plan</t>
+  </si>
+  <si>
+    <t>The Software Sustainability Institute</t>
+  </si>
+  <si>
+    <t>Even if your funders or other stakeholders do not require you to release your source code, consider releasing your source code anyway if they have no objections. See OSS Watch's "Benefits of Open Source Code" (http://osswatch. ac.uk/resources/whoneedssource)</t>
+  </si>
+  <si>
+    <t>See the Software Sustainability Institute's guide on
+"How to choose a software licence" (https://softwaresaved.github.io/software-depositguidance/
+HowToChooseSoftwareLicence.html)</t>
+  </si>
+  <si>
+    <t>via a digital repository such as Zenodo
+(https://zenodo.org) or figshare (https://figshare.com)</t>
+  </si>
+  <si>
+    <t>It is always good to make clear what, if any, support you will provide clear on your website or in your documentation, e.g. "we will reply to all e-mails within a week and will let you know when, or if, we can address your issue"
+When developing research software, it is good to be able to explain how it will contribute to research, whether this is research to be done by yourself or by others using your research software.</t>
+  </si>
+  <si>
+    <t>Consider providing a CITATION.cff file with your source code, with your citation expressed in the Citation File Format (CFF) (https://citation-file-format.github.io/).</t>
+  </si>
+  <si>
+    <t>Repository hosting services such as GitHub, BitBucket, GitLab, Assembla or Microsoft Visual Studio Team Services (https://www.visualstudio.com/team-services/) that host source code repositories are great for the development of active software</t>
+  </si>
+  <si>
+    <t>he Turing Way: A handbook for reproducible, ethical and collaborative research</t>
+  </si>
+  <si>
+    <t>The Turing Way Community</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.3233853</t>
+  </si>
+  <si>
+    <t>https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html
+https://choosealicense.com/</t>
+  </si>
+  <si>
+    <t>Create a new file and name is License.txt or License.md based on your preference of the file format</t>
+  </si>
+  <si>
+    <t>A popular place to make your code available is GitHub
+https://the-turing-way.netlify.app/project-design/code-styling/code-styling-guidelines.html</t>
+  </si>
+  <si>
+    <t>https://the-turing-way.netlify.app/project-design/code-styling/code-styling-tools.html</t>
+  </si>
+  <si>
+    <t>To make your code citable, you can use the integration between Zenodo and GitHub</t>
+  </si>
+  <si>
+    <t>The Citation File Format lets you provide citation metadata, for software or datasets, in plaintext files that are easy to read by both humans and machines.</t>
+  </si>
+  <si>
+    <t>https://citation-file-format.github.io/cff-initializer-javascript/</t>
+  </si>
+  <si>
+    <t>Include a README file containing useful information about a project such as what it is, how to use/install it and how to run any tests. If you want others to collaborate on the project include contribution guidelines.
+Document the tests and how to run them.
+Include an example citation in your software manual</t>
+  </si>
+  <si>
+    <t>Model Policy on Sustainable Software at the Helmholtz Centers</t>
+  </si>
+  <si>
+    <t>Research Software Task Group</t>
+  </si>
+  <si>
+    <t>A brief, informative description of the purpose of the research software shall be enclosed (e.g., in the form of a README file).</t>
+  </si>
+  <si>
+    <t>A Guide for Publishing, Using, and Licensing Research Software in Germany</t>
+  </si>
+  <si>
+    <t>Very high-level instructions</t>
+  </si>
+  <si>
+    <t>Bazuine</t>
+  </si>
+  <si>
+    <t>TU Delft Guidelines on Research Software: Licensing, Registration and Commercialisation</t>
+  </si>
+  <si>
+    <t>TU Delft has defined a list of pre-approved software licences that software developers, researchers and staff can choose from when sharing software openly. Currently, these are Apache, MIT, BSD, EUPL, AGPL, LGPL, GPL, and CC0. Please note that it is a ‘living’ list; based on the use this list will be modified and appended in the future.</t>
+  </si>
+  <si>
+    <t>Publish their software in another suitable repository (e.g. GitHub, Zenodo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV files </t>
+  </si>
+  <si>
+    <t>Zenodo; HAL; Software Heritage</t>
+  </si>
+  <si>
+    <t>Apache 2.0; GNU GPL v3</t>
+  </si>
+  <si>
+    <t>bio.tools; Research Software Directory</t>
+  </si>
+  <si>
+    <t>Common Workflow Language; 
+R community standards for creating
+packages; PEP 8 Style Guide for Python Code</t>
+  </si>
+  <si>
+    <t>Source code; Binaries; Containers; Software as a service</t>
+  </si>
+  <si>
+    <t>The FAIR4RS Principles can be applied to any research software, regardless of the license. To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation</t>
+  </si>
+  <si>
+    <t>https://www.research-software.nl/software/cffconvert</t>
+  </si>
+  <si>
+    <t>SciCrunch; ASCL</t>
+  </si>
+  <si>
+    <t>Registry records should not be cited in favor of published software records</t>
+  </si>
+  <si>
+    <t>https://fairsharing.org/standards/</t>
+  </si>
+  <si>
+    <t>GA4GH; https://fairsharing.org/standards/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as including one of the standard formats for citation, e.g. Citation File (CFF), BibTex) and include the authors’ ORCIDs (i.e. the unique identification of each author) in the citation information.
+Do you include citation information (i.e. how to cite your software in the form of citation.cff, codemeta.json or bibtex)?
+The choice of the input and output formats will greatly affect the level of adoption. Choosing standards in the field (e.g. GA4GH, or resources found in registries such as FAIRSharing, EDAM ontology (Ison et al., 2013), etc) will make it easier for adopters to integrate the tool in their own workflows and will allow for reuse with their own datasets
+</t>
+  </si>
+  <si>
+    <t>CodeMeta; Citation File Format; Bibtex; EDAM</t>
+  </si>
+  <si>
+    <t>The actual scope, goals and purpose of the software needs
+to be defined and documented. 
+Documented information on how the software can be reliably used by
+people external to the development group or person.
+Do you state how to report bugs and/or usability problems by the software user(s)? This could be a simple sentence in the software documentation, stating an email, or an issue tracker, or a direct messaging protocol, or even a statement that bug reporting/issues are not supported</t>
+  </si>
+  <si>
+    <t>Software Heritage</t>
+  </si>
+  <si>
+    <t>Apache 2.0</t>
+  </si>
+  <si>
+    <t>Research Software Directory; PyPI; Conda-forge</t>
+  </si>
+  <si>
+    <t>Benefits of Open Source Code" (http://osswatch. ac.uk/resources/whoneedssource)</t>
+  </si>
+  <si>
+    <t>https://softwaresaved.github.io/software-depositguidance/HowToChooseSoftwareLicence.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> file containing useful information about a project such as what it is, how to use/install it and how to run any tests. If you want others to collaborate on the project include contribution guidelines.
+Document the tests and how to run them.
+Include an example citation in your software manual</t>
+  </si>
+  <si>
+    <t>License.txt; License.md</t>
+  </si>
+  <si>
+    <t>Apache 2.0; MIT; BSD; EUPL; AGPL; LGPL; GPL; CC0</t>
+  </si>
+  <si>
+    <t>Please note that it is a ‘living’ list; based on the use this list will be modified and appended in the future.</t>
+  </si>
+  <si>
+    <t>Hunt</t>
+  </si>
+  <si>
+    <t>Sim2Ls: FAIR simulation workflows and data</t>
+  </si>
+  <si>
+    <t>"Sim2L Python library that allow developers to create and share
+end-to-end computational workflows with well-defined and verified inputs and outputs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include metadata that follows community standards and uses controlled vocabulary (F2). The metadata needs to include plurality of attributes, i.e. use multiple terms for the same, similar, or overlapping concept (R1). The metadata is required to include several elements: relation between different versions of a software (F1.2), the identifier of the software and describes how it can be obtained (F3), information about citing the software (F4), the standards followed by the data interacting with the software (I1), qualified references to other objects required to run the software (I2), detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2), and qualified references to other software required to run the software (R2). Metadata needs to be included in both machine readable and human-readable e.g. software documentation format (F4, R1). The documentation needs to meet domain-relevant community standards (R3). Version control systems such as GitHub can be used to record details of the software development history (R1). </t>
+  </si>
+  <si>
+    <t>Principles covered</t>
+  </si>
+  <si>
+    <t>Standards for software (including for data read, written, and exchanged)
+Best coding practices (e.g., choice of programming language, standard for testing, accessibility)</t>
+  </si>
+  <si>
+    <t>Metadata format and structure (other than repository/registry)
+Documentation standards (format, content)</t>
+  </si>
+  <si>
+    <t>What relevant standards exist for metadata format and structure (outside of repositories and registries) that allows to document the mandatory metadata in human and machine-readable format? 
+- Relation between different versions of a software (F1.2)
+- The identifier of the software and describes how it can be obtained (F3)
+- Information about citing the software (F4)
+- The standards followed by the data interacting with the software (I1) 
+- Qualified references to other objects required to run the software (I2), 
+- Detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2)
+- Qualified references to other software required to run the software (R2)
+How can biomedical research software be documented following relevant standards (documentation format, documentation content)?</t>
+  </si>
+  <si>
+    <t>Implementation questions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371%2Fjournal.pcbi.1009823</t>
+  </si>
+  <si>
+    <t>Archive in a repository</t>
+  </si>
+  <si>
+    <t>Register in a registry</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop with a version control system platform </t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub, Bitbucket); Use container technologies (Docker)</t>
+  </si>
+  <si>
+    <t>Make code modular; Have code level documentation; Provide tests; Develop with a version control system platform</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub, Bitbucket, GitLab)</t>
+  </si>
+  <si>
+    <t>Make code modular; Use container technologies (Docker); Develop with a version control system platform (GitHub)</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub, Bitbucket); Have code level documentation; Use container technologies (Docker)</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform; Provide tests; Include sample data</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform; Record dependencies (requirement.txt); Use container technologies (Docker, Singularity); Have code level documentation</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub, Bitbucket, GitLab); Have code level documentation; Provide tests; Record dependencies (requirement.txt, README)</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub, Bitbucket, GitLab; Assembla; Microsoft Visual Studio Team Services)</t>
+  </si>
+  <si>
+    <t>https://coderefinery.github.io/reproducible-research/dependencies/; https://coderefinery.github.io/reproducible-research/organizing-projects/; https://coderefinery.github.io/reproducible-research/environments/</t>
+  </si>
+  <si>
+    <t>Record dependencies (requirements, imports, libraries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code includes
+dependencies to external software packages, such as Thermo Scientific’s MSFileReader library (R2)
+and the GitHub repository has detailed records of the development history (R1) and refers to other objects such as websites (I2)
+and the GitHub repository has detailed records of the development history (R1). The code includes dependencies to other software, such as various Python libraries (R2) </t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform (GitHub); Record dependencies (in code)</t>
   </si>
   <si>
     <t>Additionally, the actual scope, goals and purpose of the software needs
@@ -2950,383 +3301,34 @@
 (both in the README
 Developers should keep an up to date CHANGELOG to communicate changes in the way the software works for the growing user base.
 As modifications and corrections are introduced, users should have sufficient information (e.g. through the CHANGELOG file) to assess the impact of the changes on ongoing projects that rely on the software
-How do you define language-specific dependencies of your software and their version? For instance Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScriptHow do you define language-specific dependencies of your software and their version? For instance Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScript
 User documentation, Programmers documentation, API documentation, README file, Release notes, Docstring/comments in the source code, CHANGELOG
 Do you state how to report bugs and/or usability problems by the software user(s)? This could be a simple sentence in the software documentation, stating an email, or an issue tracker, or a direct messaging protocol, or even a statement that bug reporting/issues are not supported</t>
   </si>
   <si>
-    <t>Woodley</t>
-  </si>
-  <si>
-    <t>CSCCE Community Profile: The FAIR for Research Software (FAIR4RS) Working Group</t>
-  </si>
-  <si>
-    <t>This profile showcases the FAIR for Research Software (FAIR4RS) Working Group, and is part of a second collection of profiles published in July 2021</t>
-  </si>
-  <si>
-    <t>A National Agenda for Research Software</t>
-  </si>
-  <si>
-    <t>Australian Research Data Commons</t>
-  </si>
-  <si>
-    <t>Toward defining and implementing FAIR for research software</t>
-  </si>
-  <si>
-    <t>High-level overview of FAIR4RS work</t>
-  </si>
-  <si>
-    <t>Software as a first class output in a FAIR ecosystem</t>
-  </si>
-  <si>
-    <t>Archive source code in Software Heritage</t>
-  </si>
-  <si>
-    <t>FAIR4RS Roadmap Report</t>
-  </si>
-  <si>
-    <t>FAIR4RS: Adoption support</t>
-  </si>
-  <si>
-    <t>Summaries adoption of FAIR4RS by different communities</t>
-  </si>
-  <si>
-    <t>AGU: a link to where the software is being actively developed, often a
-GitHub repository</t>
-  </si>
-  <si>
-    <t>AGU: Instructions to authors to preserve their software in a repository (authors often choose
-Zenodo)
-ESMAValTool: Having a globally unique and persistent identifier, with distinct identifiers for different
-versions by being indexed in Zenodo: the tool consists of two components, with different
-identifiers for versions and are indexed in Zenodo</t>
-  </si>
-  <si>
-    <t>ESMAVaTool: The software is described with rich and searchable metadata by having a citation file
-(CFF)</t>
-  </si>
-  <si>
-    <t>ESMAValTool: being indexed in the Research Software Directory, (https://research-software.nl/software/esmvaltool), PyPI
-(https://pypi.org/project/ESMValTool/), and Conda-forge (https://anaconda.org/conda-forge/esmvaltool)</t>
-  </si>
-  <si>
-    <t>ESMValGroup: It has an Apache 2.0 licence</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.5281/zenodo.4706164</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.2159713</t>
-  </si>
-  <si>
-    <t>The Overlap Between FAIR for Research Software and Open Science</t>
-  </si>
-  <si>
-    <t>FAIR4RS Software (FAIR4RS)</t>
-  </si>
-  <si>
-    <t>A Survey on Adoption Guidelines for the FAIR4RS Principles</t>
-  </si>
-  <si>
-    <t>Good discussion on current gaps for implementing the FAIR4RS principles
-Summarize overall findings from reviewed resources. The associated dataset (10.5281/zenodo.6375540) contains more information relevant to our work</t>
-  </si>
-  <si>
-    <t>A Survey on Adoption Guidelines for the FAIR4RS Principles: Dataset</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.48440/os.helmholtz.041</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.4327147</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.4629635</t>
-  </si>
-  <si>
-    <t>Not relevant directly but provide relevant resources. Most of them are already in our review resources but some new ones have been added in category 5</t>
-  </si>
-  <si>
-    <t>FAIR Software and FAIR ML Models</t>
-  </si>
-  <si>
-    <t>FAIR4RS - FAIR for Research Software</t>
-  </si>
-  <si>
-    <t>Erdmann</t>
-  </si>
-  <si>
-    <t>Software Citation Checklist</t>
-  </si>
-  <si>
-    <t>Decide on and use an open-source license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use the choose an open-source license site (https://choosealicense.com) to decide </t>
-  </si>
-  <si>
-    <t>Plan to capture information that will be vital to describing and citing your software later including authors (contributors), project/software name, releases (versions), coding standards, dependencies, frameworks, tests, and sustainability</t>
-  </si>
-  <si>
-    <t>Making your code citable via Zenodo and GitHub</t>
-  </si>
-  <si>
-    <t>the CodeMeta file that is created
-Use the Citation File Format</t>
-  </si>
-  <si>
-    <t>https://citation-file-format.github.io/</t>
-  </si>
-  <si>
-    <t>Checklist for a Software Management Plan</t>
-  </si>
-  <si>
-    <t>The Software Sustainability Institute</t>
-  </si>
-  <si>
-    <t>Even if your funders or other stakeholders do not require you to release your source code, consider releasing your source code anyway if they have no objections. See OSS Watch's "Benefits of Open Source Code" (http://osswatch. ac.uk/resources/whoneedssource)</t>
-  </si>
-  <si>
-    <t>See the Software Sustainability Institute's guide on
-"How to choose a software licence" (https://softwaresaved.github.io/software-depositguidance/
-HowToChooseSoftwareLicence.html)</t>
-  </si>
-  <si>
-    <t>via a digital repository such as Zenodo
-(https://zenodo.org) or figshare (https://figshare.com)</t>
-  </si>
-  <si>
-    <t>It is always good to make clear what, if any, support you will provide clear on your website or in your documentation, e.g. "we will reply to all e-mails within a week and will let you know when, or if, we can address your issue"
-When developing research software, it is good to be able to explain how it will contribute to research, whether this is research to be done by yourself or by others using your research software.</t>
-  </si>
-  <si>
-    <t>Consider providing a CITATION.cff file with your source code, with your citation expressed in the Citation File Format (CFF) (https://citation-file-format.github.io/).</t>
-  </si>
-  <si>
-    <t>Repository hosting services such as GitHub, BitBucket, GitLab, Assembla or Microsoft Visual Studio Team Services (https://www.visualstudio.com/team-services/) that host source code repositories are great for the development of active software</t>
-  </si>
-  <si>
-    <t>he Turing Way: A handbook for reproducible, ethical and collaborative research</t>
-  </si>
-  <si>
-    <t>The Turing Way Community</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3233853</t>
-  </si>
-  <si>
-    <t>https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html
-https://choosealicense.com/</t>
-  </si>
-  <si>
-    <t>Create a new file and name is License.txt or License.md based on your preference of the file format</t>
-  </si>
-  <si>
-    <t>A popular place to make your code available is GitHub
-https://the-turing-way.netlify.app/project-design/code-styling/code-styling-guidelines.html</t>
-  </si>
-  <si>
-    <t>https://the-turing-way.netlify.app/project-design/code-styling/code-styling-tools.html</t>
-  </si>
-  <si>
-    <t>To make your code citable, you can use the integration between Zenodo and GitHub</t>
-  </si>
-  <si>
-    <t>The Citation File Format lets you provide citation metadata, for software or datasets, in plaintext files that are easy to read by both humans and machines.</t>
-  </si>
-  <si>
-    <t>https://citation-file-format.github.io/cff-initializer-javascript/</t>
-  </si>
-  <si>
-    <t>Include a README file containing useful information about a project such as what it is, how to use/install it and how to run any tests. If you want others to collaborate on the project include contribution guidelines.
-Document the tests and how to run them.
-Include an example citation in your software manual</t>
-  </si>
-  <si>
-    <t>Model Policy on Sustainable Software at the Helmholtz Centers</t>
-  </si>
-  <si>
-    <t>Research Software Task Group</t>
-  </si>
-  <si>
-    <t>A brief, informative description of the purpose of the research software shall be enclosed (e.g., in the form of a README file).</t>
-  </si>
-  <si>
-    <t>A Guide for Publishing, Using, and Licensing Research Software in Germany</t>
-  </si>
-  <si>
-    <t>Very high-level instructions</t>
-  </si>
-  <si>
-    <t>Bazuine</t>
-  </si>
-  <si>
-    <t>TU Delft Guidelines on Research Software: Licensing, Registration and Commercialisation</t>
-  </si>
-  <si>
-    <t>TU Delft has defined a list of pre-approved software licences that software developers, researchers and staff can choose from when sharing software openly. Currently, these are Apache, MIT, BSD, EUPL, AGPL, LGPL, GPL, and CC0. Please note that it is a ‘living’ list; based on the use this list will be modified and appended in the future.</t>
-  </si>
-  <si>
-    <t>Publish their software in another suitable repository (e.g. GitHub, Zenodo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSV files </t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed information about its development
-refers to other objects such as websites
-GitHub repository has detailed records of the development history
+    <t>where the software will be stored during development (e.g. GitHub, GitLab, etc.)
+Also the choice of the versioning system will narrow down available online services that can be used to share code (e.g. BitBucket only supports Git). Using an open GitHub repository will make it easier for others to reuse and contribute. On the other hand, using a local institutional repository (e.g. local GitLab instance) may be a solution preferred by the specific organisation.
+(inline documentation, docstrings etc.). It is also important to ensure that the code functions as intended (e.g. via unit tests or doctests) 
+Providing tests as extensively as possible (ideally through automated processes), in order to ensure that the documented functionality is stable, as well as identifying potential bugs and/or issues.
+How do you define language-specific dependencies of your software and their version? For instance Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScriptHow do you define language-specific dependencies of your software and their version? For instance Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScript 
+The most crucial aspect here is to ensure the (re-)use and reproducibility
+of the software, by clearly documenting any OS/Software/hardware dependencies. This can be achieved through different methods (incl. registry and package managers, containerisation, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+README; CHANGELOG; User documentation; Programmer documentation; API documentation; 
 </t>
   </si>
   <si>
-    <t>Zenodo; HAL; Software Heritage</t>
-  </si>
-  <si>
-    <t>Apache 2.0; GNU GPL v3</t>
-  </si>
-  <si>
-    <t>bio.tools; Research Software Directory</t>
-  </si>
-  <si>
-    <t>Common Workflow Language; 
-R community standards for creating
-packages; PEP 8 Style Guide for Python Code</t>
-  </si>
-  <si>
-    <t>requirements; imports; libraries</t>
-  </si>
-  <si>
-    <t>Source code; Binaries; Containers; Software as a service</t>
-  </si>
-  <si>
-    <t>The FAIR4RS Principles can be applied to any research software, regardless of the license. To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation</t>
-  </si>
-  <si>
-    <t>https://www.research-software.nl/software/cffconvert</t>
-  </si>
-  <si>
-    <t>SciCrunch; ASCL</t>
-  </si>
-  <si>
-    <t>Registry records should not be cited in favor of published software records</t>
-  </si>
-  <si>
-    <t>https://fairsharing.org/standards/</t>
-  </si>
-  <si>
-    <t>GA4GH; https://fairsharing.org/standards/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as well as including one of the standard formats for citation, e.g. Citation File (CFF), BibTex) and include the authors’ ORCIDs (i.e. the unique identification of each author) in the citation information.
-Do you include citation information (i.e. how to cite your software in the form of citation.cff, codemeta.json or bibtex)?
-The choice of the input and output formats will greatly affect the level of adoption. Choosing standards in the field (e.g. GA4GH, or resources found in registries such as FAIRSharing, EDAM ontology (Ison et al., 2013), etc) will make it easier for adopters to integrate the tool in their own workflows and will allow for reuse with their own datasets
-</t>
-  </si>
-  <si>
-    <t>CodeMeta; Citation File Format; Bibtex; EDAM</t>
-  </si>
-  <si>
-    <t>Develop with a version control system (GitHub, Bitbucket, GitLab); Have code level documentation; Provide tests; Record dependencies; Use container technologies</t>
-  </si>
-  <si>
-    <t>The actual scope, goals and purpose of the software needs
-to be defined and documented. 
-Documented information on how the software can be reliably used by
-people external to the development group or person.
-Do you state how to report bugs and/or usability problems by the software user(s)? This could be a simple sentence in the software documentation, stating an email, or an issue tracker, or a direct messaging protocol, or even a statement that bug reporting/issues are not supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-README, CHANGELOG; User documentation; Programmer documentation; API documentation; Have code level documentation (Docstring, comments); Record dependencies (Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScript)
-</t>
-  </si>
-  <si>
-    <t>Sample input and output files</t>
-  </si>
-  <si>
-    <t>Software Heritage</t>
-  </si>
-  <si>
-    <t>Develop with a version control system (GitHub)</t>
-  </si>
-  <si>
-    <t>Apache 2.0</t>
-  </si>
-  <si>
-    <t>Research Software Directory; PyPI; Conda-forge</t>
-  </si>
-  <si>
-    <t>Develop with a version control system (GitHub, Bitbucket, GitLab; Assembla; Microsoft Visual Studio Team Services)</t>
-  </si>
-  <si>
-    <t>Benefits of Open Source Code" (http://osswatch. ac.uk/resources/whoneedssource)</t>
-  </si>
-  <si>
-    <t>https://softwaresaved.github.io/software-depositguidance/HowToChooseSoftwareLicence.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> file containing useful information about a project such as what it is, how to use/install it and how to run any tests. If you want others to collaborate on the project include contribution guidelines.
-Document the tests and how to run them.
-Include an example citation in your software manual</t>
-  </si>
-  <si>
-    <t>License.txt; License.md</t>
-  </si>
-  <si>
-    <t>https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html; https://choosealicense.com/</t>
-  </si>
-  <si>
-    <t>Apache 2.0; MIT; BSD; EUPL; AGPL; LGPL; GPL; CC0</t>
-  </si>
-  <si>
-    <t>Please note that it is a ‘living’ list; based on the use this list will be modified and appended in the future.</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Sim2Ls: FAIR simulation workflows and data</t>
-  </si>
-  <si>
-    <t>"Sim2L Python library that allow developers to create and share
-end-to-end computational workflows with well-defined and verified inputs and outputs"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include metadata that follows community standards and uses controlled vocabulary (F2). The metadata needs to include plurality of attributes, i.e. use multiple terms for the same, similar, or overlapping concept (R1). The metadata is required to include several elements: relation between different versions of a software (F1.2), the identifier of the software and describes how it can be obtained (F3), information about citing the software (F4), the standards followed by the data interacting with the software (I1), qualified references to other objects required to run the software (I2), detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2), and qualified references to other software required to run the software (R2). Metadata needs to be included in both machine readable and human-readable e.g. software documentation format (F4, R1). The documentation needs to meet domain-relevant community standards (R3). Version control systems such as GitHub can be used to record details of the software development history (R1). </t>
-  </si>
-  <si>
-    <t>Principles covered</t>
-  </si>
-  <si>
-    <t>Standards for software (including for data read, written, and exchanged)
-Best coding practices (e.g., choice of programming language, standard for testing, accessibility)</t>
-  </si>
-  <si>
-    <t>Metadata format and structure (other than repository/registry)
-Documentation standards (format, content)</t>
-  </si>
-  <si>
-    <t>What relevant standards exist for metadata format and structure (outside of repositories and registries) that allows to document the mandatory metadata in human and machine-readable format? 
-- Relation between different versions of a software (F1.2)
-- The identifier of the software and describes how it can be obtained (F3)
-- Information about citing the software (F4)
-- The standards followed by the data interacting with the software (I1) 
-- Qualified references to other objects required to run the software (I2), 
-- Detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2)
-- Qualified references to other software required to run the software (R2)
-How can biomedical research software be documented following relevant standards (documentation format, documentation content)?</t>
-  </si>
-  <si>
-    <t>Implementation questions</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371%2Fjournal.pcbi.1009823</t>
-  </si>
-  <si>
-    <t>Archive in a repository</t>
-  </si>
-  <si>
-    <t>Register in a registry</t>
+    <t>Develop with a version control system platform (GitHub, Bitbucket, GitLab); Have code level documentation; Provide tests; Have code level documentation (Docstring, comments); Record dependencies (Maven for Java, requirements.txt or environment.yml for Python, package.json for JavaScript); Use container technologies</t>
+  </si>
+  <si>
+    <t>Source code; Input data; Output data</t>
+  </si>
+  <si>
+    <t>Input data; Output data</t>
+  </si>
+  <si>
+    <t>Create a new file and name is License.txt or License.md based on your preference of the file format; https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html; https://choosealicense.com/</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3526,6 +3528,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3540,26 +3558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3860,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -3880,7 +3878,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -3894,94 +3892,94 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" t="s">
         <v>560</v>
-      </c>
-      <c r="C7" t="s">
-        <v>574</v>
-      </c>
-      <c r="D7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" t="s">
         <v>564</v>
       </c>
-      <c r="B8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C8" t="s">
-        <v>575</v>
-      </c>
       <c r="D8" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -3992,10 +3990,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -4012,7 +4010,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -4032,7 +4030,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -4052,7 +4050,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -4072,7 +4070,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -4143,7 +4141,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -4308,10 +4306,10 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C30" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
@@ -5082,35 +5080,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="C1" s="28"/>
+      <c r="B1" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="C3" s="26"/>
+      <c r="B3" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>30</v>
@@ -5118,56 +5116,56 @@
     </row>
     <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="C7" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="C9" s="29"/>
+      <c r="B9" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -5178,41 +5176,41 @@
     </row>
     <row r="13" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="C13" s="30"/>
+        <v>582</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="36"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="C15" s="29"/>
+      <c r="B15" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>30</v>
@@ -5223,33 +5221,33 @@
     </row>
     <row r="19" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="C19" s="30"/>
+        <v>582</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="36"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
-        <v>597</v>
-      </c>
-      <c r="C21" s="29"/>
+      <c r="B21" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" s="35"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>30</v>
@@ -5257,44 +5255,44 @@
     </row>
     <row r="24" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="C25" s="30"/>
+        <v>582</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="C25" s="36"/>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27" s="29"/>
+      <c r="B27" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="C27" s="35"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>30</v>
@@ -5302,138 +5300,138 @@
     </row>
     <row r="30" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="C31" s="30"/>
+        <v>582</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" s="36"/>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="B33" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="C37" s="30"/>
+        <v>582</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="C39" s="28"/>
+      <c r="B39" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="C39" s="34"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="C41" s="26"/>
+      <c r="B41" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="C45" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C45" s="33"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="C47" s="26"/>
+      <c r="B47" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="C47" s="32"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>30</v>
@@ -5441,7 +5439,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>30</v>
@@ -5452,33 +5450,33 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="C51" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C51" s="33"/>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="C53" s="26"/>
+      <c r="B53" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C53" s="32"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>30</v>
@@ -5486,7 +5484,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>30</v>
@@ -5497,33 +5495,33 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="C57" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="C57" s="33"/>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
-        <v>615</v>
-      </c>
-      <c r="C59" s="26"/>
+      <c r="B59" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C59" s="32"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>30</v>
@@ -5531,99 +5529,99 @@
     </row>
     <row r="62" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>642</v>
-      </c>
-      <c r="C63" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="C65" s="28"/>
+      <c r="B65" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="C65" s="34"/>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="C67" s="26"/>
+      <c r="B67" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="C71" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="C71" s="33"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="C73" s="26"/>
+      <c r="B73" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>131</v>
@@ -5631,50 +5629,50 @@
     </row>
     <row r="76" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="C77" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="C77" s="33"/>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
-        <v>624</v>
-      </c>
-      <c r="C79" s="28"/>
+      <c r="B79" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="C79" s="34"/>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="C81" s="26"/>
+      <c r="B81" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="C81" s="32"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>30</v>
@@ -5682,44 +5680,44 @@
     </row>
     <row r="84" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="C85" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="C85" s="33"/>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="C87" s="26"/>
+      <c r="B87" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="C87" s="32"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>30</v>
@@ -5727,44 +5725,44 @@
     </row>
     <row r="90" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>647</v>
-      </c>
-      <c r="C91" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="C91" s="33"/>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="C93" s="26"/>
+      <c r="B93" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C93" s="32"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>30</v>
@@ -5772,7 +5770,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>30</v>
@@ -5783,84 +5781,84 @@
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="C97" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="C97" s="33"/>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="C99" s="26"/>
+      <c r="B99" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C99" s="32"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="C103" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="C103" s="33"/>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="C105" s="26"/>
+      <c r="B105" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C105" s="32"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>30</v>
@@ -5871,37 +5869,15 @@
     </row>
     <row r="109" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="C109" s="27"/>
+        <v>582</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="C109" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5918,6 +5894,28 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5934,118 +5932,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.140625" style="35"/>
-    <col min="3" max="4" width="54.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="29.140625" style="35"/>
+    <col min="1" max="2" width="29.140625" style="28"/>
+    <col min="3" max="4" width="54.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="29.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="C1" s="37" t="s">
+    <row r="1" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>955</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>660</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>663</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>978</v>
+      <c r="F2" s="28" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>661</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>976</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>843</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>980</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>979</v>
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>653</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>654</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>841</v>
+      <c r="B4" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>983</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>839</v>
+      <c r="B5" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>644</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>984</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>657</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>840</v>
+      <c r="B6" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -6085,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6117,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C2" s="6">
         <v>44869</v>
@@ -6291,7 +6289,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="E7" s="1">
         <f>SUM(E2:E6)</f>
@@ -6331,8 +6329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,16 +6354,16 @@
         <v>66</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -6373,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -6396,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D3" s="13">
         <v>2</v>
@@ -6422,7 +6420,7 @@
         <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -6445,7 +6443,7 @@
         <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -6468,7 +6466,7 @@
         <v>267</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D6" s="13">
         <v>5</v>
@@ -6491,7 +6489,7 @@
         <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -6514,7 +6512,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D8" s="14">
         <v>1</v>
@@ -6534,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -6557,10 +6555,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D10" s="13">
         <v>3</v>
@@ -6580,10 +6578,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D11" s="13">
         <v>4</v>
@@ -6603,10 +6601,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -6626,10 +6624,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D13" s="13">
         <v>6</v>
@@ -6649,10 +6647,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D14" s="13">
         <v>7</v>
@@ -6672,10 +6670,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D15" s="13">
         <v>8</v>
@@ -6698,7 +6696,7 @@
         <v>134</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D16" s="13">
         <v>9</v>
@@ -6721,7 +6719,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D17" s="13">
         <v>10</v>
@@ -6741,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D18" s="13">
         <v>11</v>
@@ -6764,10 +6762,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D19" s="13">
         <v>12</v>
@@ -6787,10 +6785,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D20" s="13">
         <v>13</v>
@@ -6810,10 +6808,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D21" s="13">
         <v>14</v>
@@ -6836,7 +6834,7 @@
         <v>223</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D22" s="13">
         <v>15</v>
@@ -6859,7 +6857,7 @@
         <v>281</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D23" s="13">
         <v>16</v>
@@ -6882,7 +6880,7 @@
         <v>215</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D24" s="13">
         <v>17</v>
@@ -6902,10 +6900,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D25" s="13">
         <v>18</v>
@@ -6928,7 +6926,7 @@
         <v>133</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D26" s="13">
         <v>19</v>
@@ -6951,7 +6949,7 @@
         <v>133</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -6974,7 +6972,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D28" s="13">
         <v>2</v>
@@ -6997,7 +6995,7 @@
         <v>137</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -7020,7 +7018,7 @@
         <v>138</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D30" s="13">
         <v>4</v>
@@ -7043,7 +7041,7 @@
         <v>153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -7066,7 +7064,7 @@
         <v>139</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D32" s="13">
         <v>6</v>
@@ -7089,7 +7087,7 @@
         <v>140</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D33" s="13">
         <v>7</v>
@@ -7109,10 +7107,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D34" s="13">
         <v>8</v>
@@ -7135,7 +7133,7 @@
         <v>142</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D35" s="13">
         <v>9</v>
@@ -7155,10 +7153,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D36" s="13">
         <v>10</v>
@@ -7181,7 +7179,7 @@
         <v>145</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D37" s="13">
         <v>11</v>
@@ -7204,7 +7202,7 @@
         <v>134</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D38" s="13">
         <v>12</v>
@@ -7227,7 +7225,7 @@
         <v>135</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D39" s="13">
         <v>13</v>
@@ -7250,7 +7248,7 @@
         <v>146</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D40" s="13">
         <v>14</v>
@@ -7273,7 +7271,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D41" s="13">
         <v>15</v>
@@ -7293,10 +7291,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D42" s="13">
         <v>16</v>
@@ -7319,7 +7317,7 @@
         <v>149</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D43" s="13">
         <v>17</v>
@@ -7868,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>151</v>
@@ -7937,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>151</v>
@@ -8006,7 +8004,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>151</v>
@@ -8075,7 +8073,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C76" t="s">
         <v>135</v>
@@ -8144,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C79" t="s">
         <v>135</v>
@@ -8213,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="C82" t="s">
         <v>135</v>
@@ -8236,7 +8234,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="C83" t="s">
         <v>135</v>
@@ -8328,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C87" t="s">
         <v>135</v>
@@ -8443,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C92" t="s">
         <v>135</v>
@@ -8466,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C93" t="s">
         <v>135</v>
@@ -8489,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="C94" t="s">
         <v>135</v>
@@ -8512,7 +8510,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="C95" t="s">
         <v>135</v>
@@ -8650,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C101" t="s">
         <v>135</v>
@@ -8788,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="C107" t="s">
         <v>135</v>
@@ -9087,7 +9085,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
@@ -9110,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C121" t="s">
         <v>135</v>
@@ -9133,7 +9131,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C122" t="s">
         <v>135</v>
@@ -9156,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C123" t="s">
         <v>135</v>
@@ -9179,7 +9177,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="C124" t="s">
         <v>135</v>
@@ -9202,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="C125" t="s">
         <v>135</v>
@@ -9225,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="C126" t="s">
         <v>135</v>
@@ -9248,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="C127" t="s">
         <v>135</v>
@@ -9271,7 +9269,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -9294,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C129" t="s">
         <v>135</v>
@@ -9317,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C130" t="s">
         <v>135</v>
@@ -9340,7 +9338,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="C131" t="s">
         <v>135</v>
@@ -9363,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="C132" t="s">
         <v>135</v>
@@ -9386,7 +9384,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="C133" t="s">
         <v>135</v>
@@ -9524,7 +9522,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="C139" t="s">
         <v>135</v>
@@ -9547,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C140" t="s">
         <v>135</v>
@@ -9685,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="C146" t="s">
         <v>135</v>
@@ -9708,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C147" t="s">
         <v>135</v>
@@ -9938,7 +9936,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C157" t="s">
         <v>186</v>
@@ -9984,7 +9982,7 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C159" t="s">
         <v>186</v>
@@ -10056,7 +10054,7 @@
         <v>195</v>
       </c>
       <c r="C162" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -10079,7 +10077,7 @@
         <v>196</v>
       </c>
       <c r="C163" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -10102,7 +10100,7 @@
         <v>197</v>
       </c>
       <c r="C164" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -10125,7 +10123,7 @@
         <v>198</v>
       </c>
       <c r="C165" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D165">
         <v>6</v>
@@ -10148,7 +10146,7 @@
         <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -10171,7 +10169,7 @@
         <v>153</v>
       </c>
       <c r="C167" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D167">
         <v>8</v>
@@ -10194,7 +10192,7 @@
         <v>200</v>
       </c>
       <c r="C168" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D168">
         <v>9</v>
@@ -10217,7 +10215,7 @@
         <v>201</v>
       </c>
       <c r="C169" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="D169">
         <v>10</v>
@@ -10240,7 +10238,7 @@
         <v>202</v>
       </c>
       <c r="C170" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D170">
         <v>11</v>
@@ -10263,7 +10261,7 @@
         <v>203</v>
       </c>
       <c r="C171" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="D171">
         <v>12</v>
@@ -10286,7 +10284,7 @@
         <v>204</v>
       </c>
       <c r="C172" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D172">
         <v>13</v>
@@ -10309,7 +10307,7 @@
         <v>205</v>
       </c>
       <c r="C173" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D173">
         <v>14</v>
@@ -10332,7 +10330,7 @@
         <v>372</v>
       </c>
       <c r="C174" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D174">
         <v>15</v>
@@ -10355,7 +10353,7 @@
         <v>206</v>
       </c>
       <c r="C175" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D175">
         <v>16</v>
@@ -10378,7 +10376,7 @@
         <v>146</v>
       </c>
       <c r="C176" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="D176">
         <v>17</v>
@@ -10401,7 +10399,7 @@
         <v>207</v>
       </c>
       <c r="C177" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D177">
         <v>18</v>
@@ -10424,7 +10422,7 @@
         <v>208</v>
       </c>
       <c r="C178" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="D178">
         <v>19</v>
@@ -10447,7 +10445,7 @@
         <v>209</v>
       </c>
       <c r="C179" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="D179">
         <v>20</v>
@@ -10470,7 +10468,7 @@
         <v>210</v>
       </c>
       <c r="C180" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D180">
         <v>21</v>
@@ -10493,7 +10491,7 @@
         <v>211</v>
       </c>
       <c r="C181" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D181">
         <v>22</v>
@@ -10516,7 +10514,7 @@
         <v>212</v>
       </c>
       <c r="C182" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="D182">
         <v>23</v>
@@ -10536,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>214</v>
@@ -10559,7 +10557,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>214</v>
@@ -10582,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>214</v>
@@ -10605,7 +10603,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>214</v>
@@ -10651,7 +10649,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>214</v>
@@ -10674,7 +10672,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>214</v>
@@ -10697,7 +10695,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C190" s="16" t="s">
         <v>214</v>
@@ -10720,7 +10718,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>214</v>
@@ -10743,7 +10741,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>214</v>
@@ -10766,7 +10764,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>214</v>
@@ -10789,7 +10787,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>214</v>
@@ -10812,7 +10810,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>214</v>
@@ -10858,7 +10856,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>214</v>
@@ -11088,7 +11086,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="C207" s="16" t="s">
         <v>214</v>
@@ -11111,7 +11109,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>13</v>
@@ -11134,7 +11132,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>13</v>
@@ -11157,7 +11155,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>13</v>
@@ -11180,7 +11178,7 @@
         <v>4</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>13</v>
@@ -11203,7 +11201,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>13</v>
@@ -11226,7 +11224,7 @@
         <v>4</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>13</v>
@@ -11249,7 +11247,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>13</v>
@@ -11272,7 +11270,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>13</v>
@@ -11295,7 +11293,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>13</v>
@@ -11318,7 +11316,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>13</v>
@@ -11341,7 +11339,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>13</v>
@@ -11364,7 +11362,7 @@
         <v>4</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>13</v>
@@ -11387,7 +11385,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>13</v>
@@ -11410,7 +11408,7 @@
         <v>4</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>13</v>
@@ -11433,7 +11431,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>13</v>
@@ -11456,7 +11454,7 @@
         <v>4</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>13</v>
@@ -11479,7 +11477,7 @@
         <v>4</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>13</v>
@@ -11502,7 +11500,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>13</v>
@@ -11525,7 +11523,7 @@
         <v>4</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>13</v>
@@ -11548,7 +11546,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>13</v>
@@ -11571,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>13</v>
@@ -11594,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>13</v>
@@ -11617,7 +11615,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>13</v>
@@ -11640,7 +11638,7 @@
         <v>4</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>13</v>
@@ -11663,7 +11661,7 @@
         <v>4</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>13</v>
@@ -11686,7 +11684,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>13</v>
@@ -11709,7 +11707,7 @@
         <v>4</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>13</v>
@@ -11732,7 +11730,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>13</v>
@@ -11755,7 +11753,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>13</v>
@@ -11778,7 +11776,7 @@
         <v>4</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>13</v>
@@ -11801,7 +11799,7 @@
         <v>4</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>13</v>
@@ -11824,7 +11822,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>13</v>
@@ -11847,7 +11845,7 @@
         <v>4</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>13</v>
@@ -11870,7 +11868,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>13</v>
@@ -11893,7 +11891,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>13</v>
@@ -11916,7 +11914,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>13</v>
@@ -11939,7 +11937,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -11962,7 +11960,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>13</v>
@@ -11985,7 +11983,7 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
@@ -12008,7 +12006,7 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
@@ -12031,7 +12029,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>13</v>
@@ -12054,7 +12052,7 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -12077,7 +12075,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -12100,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C251" t="s">
         <v>13</v>
@@ -12123,7 +12121,7 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -12146,7 +12144,7 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
@@ -12169,7 +12167,7 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C254" t="s">
         <v>13</v>
@@ -12192,7 +12190,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -12238,7 +12236,7 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
@@ -12261,7 +12259,7 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -12284,7 +12282,7 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -12307,7 +12305,7 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -12330,7 +12328,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -12353,7 +12351,7 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -12376,7 +12374,7 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -12399,7 +12397,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -12422,7 +12420,7 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -12445,7 +12443,7 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -12468,7 +12466,7 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C267" t="s">
         <v>13</v>
@@ -12514,7 +12512,7 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C269" t="s">
         <v>13</v>
@@ -12537,7 +12535,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C270" t="s">
         <v>13</v>
@@ -12560,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C271" t="s">
         <v>13</v>
@@ -12583,7 +12581,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C272" t="s">
         <v>13</v>
@@ -12629,7 +12627,7 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
@@ -12652,7 +12650,7 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -12675,7 +12673,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -12698,7 +12696,7 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -12721,7 +12719,7 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -12744,7 +12742,7 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C279" t="s">
         <v>13</v>
@@ -12767,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
@@ -12790,7 +12788,7 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
@@ -12813,7 +12811,7 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -12836,7 +12834,7 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C283" t="s">
         <v>13</v>
@@ -12859,7 +12857,7 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C284" t="s">
         <v>13</v>
@@ -12905,7 +12903,7 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -12928,7 +12926,7 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C287" t="s">
         <v>13</v>
@@ -12951,7 +12949,7 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C288" t="s">
         <v>13</v>
@@ -12974,7 +12972,7 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -12997,7 +12995,7 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="C290" t="s">
         <v>13</v>
@@ -13020,7 +13018,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C291" t="s">
         <v>13</v>
@@ -13043,7 +13041,7 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C292" t="s">
         <v>13</v>
@@ -13066,7 +13064,7 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -13089,7 +13087,7 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
@@ -13112,7 +13110,7 @@
         <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -13135,7 +13133,7 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -13411,7 +13409,7 @@
         <v>5</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="C308" t="s">
         <v>15</v>
@@ -13434,7 +13432,7 @@
         <v>5</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>15</v>
@@ -13460,7 +13458,7 @@
         <v>231</v>
       </c>
       <c r="C310" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -13480,10 +13478,10 @@
         <v>5</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D311" s="13">
         <v>2</v>
@@ -13503,10 +13501,10 @@
         <v>5</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="D312" s="13">
         <v>3</v>
@@ -13526,10 +13524,10 @@
         <v>5</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D313" s="13">
         <v>4</v>
@@ -13549,10 +13547,10 @@
         <v>5</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D314" s="13">
         <v>5</v>
@@ -13572,10 +13570,10 @@
         <v>5</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D315" s="13">
         <v>6</v>
@@ -13595,10 +13593,10 @@
         <v>5</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D316" s="13">
         <v>7</v>
@@ -13644,10 +13642,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="82" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="U1" zoomScale="82" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65:I65"/>
+      <selection pane="bottomLeft" activeCell="W69" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13672,10 +13670,10 @@
         <v>72</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>0</v>
@@ -13756,7 +13754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="20" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -13770,16 +13768,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G2" s="20">
         <v>2022</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>234</v>
@@ -13788,25 +13786,28 @@
         <v>234</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>838</v>
+        <v>827</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>978</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>846</v>
+        <v>977</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="20" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13823,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>232</v>
@@ -13832,7 +13833,7 @@
         <v>2022</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>234</v>
@@ -13841,22 +13842,22 @@
         <v>234</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="S3" s="20" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
@@ -14742,7 +14743,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>239</v>
@@ -14751,7 +14752,7 @@
         <v>2019</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>151</v>
@@ -14763,19 +14764,19 @@
         <v>234</v>
       </c>
       <c r="U23" s="20" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="V23" s="20" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="Y23" s="20" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="AA23" s="20" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="20" customFormat="1" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,19 +14793,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="G24" s="20">
         <v>2010</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>260</v>
@@ -14827,19 +14828,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G25" s="20">
         <v>2018</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>234</v>
@@ -14848,10 +14849,10 @@
         <v>234</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="20" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14868,19 +14869,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="G26" s="20">
         <v>2021</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>234</v>
@@ -14889,25 +14890,25 @@
         <v>234</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>871</v>
+        <v>981</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>874</v>
+        <v>980</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14924,19 +14925,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="G27" s="20">
         <v>2021</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>234</v>
@@ -14945,7 +14946,7 @@
         <v>260</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14962,19 +14963,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="G28" s="20">
         <v>2022</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>260</v>
@@ -15161,7 +15162,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>350</v>
@@ -15419,7 +15420,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>239</v>
@@ -15428,7 +15429,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>214</v>
@@ -15440,7 +15441,7 @@
         <v>260</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15457,7 +15458,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>251</v>
@@ -15466,7 +15467,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>214</v>
@@ -15478,7 +15479,7 @@
         <v>234</v>
       </c>
       <c r="Y40" s="20" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15495,16 +15496,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G41" s="20">
         <v>2022</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>214</v>
@@ -15530,7 +15531,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>379</v>
@@ -15539,7 +15540,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>214</v>
@@ -15551,22 +15552,22 @@
         <v>234</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="U42" s="20" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="W42" s="20" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="Y42" s="20" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="AA42" s="20" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15583,7 +15584,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>239</v>
@@ -15592,7 +15593,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>214</v>
@@ -15618,7 +15619,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>232</v>
@@ -15627,7 +15628,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>214</v>
@@ -15653,7 +15654,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>317</v>
@@ -15662,7 +15663,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="I45" s="20" t="s">
         <v>214</v>
@@ -15674,7 +15675,7 @@
         <v>260</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" spans="1:27" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -15691,7 +15692,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>317</v>
@@ -15700,7 +15701,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="I46" s="20" t="s">
         <v>214</v>
@@ -15712,7 +15713,7 @@
         <v>260</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -15729,7 +15730,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>239</v>
@@ -15738,7 +15739,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>214</v>
@@ -15764,7 +15765,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F48" s="20" t="s">
         <v>317</v>
@@ -15773,7 +15774,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="I48" s="20" t="s">
         <v>214</v>
@@ -15799,7 +15800,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>391</v>
@@ -15916,7 +15917,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>404</v>
@@ -15954,16 +15955,16 @@
         <v>4</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="G53" s="21">
         <v>2022</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="I53" s="21" t="s">
         <v>393</v>
@@ -15975,7 +15976,7 @@
         <v>260</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
@@ -16289,7 +16290,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>451</v>
@@ -16498,14 +16499,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="33">
+    <row r="65" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="26">
         <v>5</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>982</v>
-      </c>
-      <c r="I65" s="33" t="s">
+      <c r="E65" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="I65" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -16535,7 +16536,7 @@
         <v>478</v>
       </c>
       <c r="I66" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>234</v>
@@ -16579,19 +16580,19 @@
         <v>5</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="G67" s="20">
         <v>2021</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>260</v>
@@ -16600,22 +16601,22 @@
         <v>234</v>
       </c>
       <c r="R67" s="20" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="U67" s="20" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="V67" s="20" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="W67" s="20" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="X67" s="20" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="Y67" s="20" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="Z67" s="20" t="s">
         <v>295</v>
@@ -16635,19 +16636,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="G68" s="20">
         <v>2018</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>234</v>
@@ -16656,22 +16657,22 @@
         <v>234</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="R68" s="20" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="S68" s="20" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="X68" s="20" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="Y68" s="20" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:26" s="20" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -16688,19 +16689,19 @@
         <v>5</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="G69" s="20">
         <v>2022</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="J69" s="20" t="s">
         <v>234</v>
@@ -16709,28 +16710,28 @@
         <v>234</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="Q69" s="20" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="U69" s="20" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="V69" s="20" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="W69" s="20" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="X69" s="24" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="Y69" s="20" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70" spans="1:26" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -16747,19 +16748,19 @@
         <v>5</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="G70" s="20">
         <v>2019</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>234</v>
@@ -16768,7 +16769,7 @@
         <v>234</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="71" spans="1:26" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16785,19 +16786,19 @@
         <v>5</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G71" s="20">
         <v>2020</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="J71" s="20" t="s">
         <v>234</v>
@@ -16806,7 +16807,7 @@
         <v>260</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="20" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16823,19 +16824,19 @@
         <v>5</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="G72" s="20">
         <v>2021</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="J72" s="20" t="s">
         <v>234</v>
@@ -16844,10 +16845,10 @@
         <v>234</v>
       </c>
       <c r="W72" s="20" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="Y72" s="20" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -16898,10 +16899,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16942,10 +16943,10 @@
         <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -17026,109 +17027,109 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="21" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+    <row r="2" spans="1:29" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="G2" s="21">
+      <c r="E2" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="20">
         <v>2022</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>580</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>941</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>942</v>
-      </c>
-      <c r="U2" s="21" t="s">
+      <c r="H2" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>944</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>943</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="21" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="W2" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="20" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>2022</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>849</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>953</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>947</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>948</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="X3" s="21" t="s">
+      <c r="H3" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>976</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>933</v>
+      </c>
+      <c r="X3" s="20" t="s">
         <v>488</v>
       </c>
     </row>
@@ -17164,7 +17165,7 @@
         <v>234</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>486</v>
@@ -17214,57 +17215,57 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:29" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>2021</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="O6" s="21" t="s">
+      <c r="J6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>964</v>
+      </c>
+      <c r="S6" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="U6" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="V6" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="U6" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="V6" s="21" t="s">
+      <c r="Y6" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
@@ -17516,13 +17517,13 @@
         <v>486</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>488</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
@@ -17542,7 +17543,7 @@
         <v>281</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G13" s="1">
         <v>2017</v>
@@ -17563,22 +17564,22 @@
         <v>284</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17619,7 +17620,7 @@
         <v>293</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>295</v>
@@ -17648,7 +17649,7 @@
         <v>2016</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>135</v>
@@ -17745,7 +17746,7 @@
         <v>488</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -17859,31 +17860,31 @@
         <v>234</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>512</v>
+        <v>966</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>322</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>295</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>328</v>
@@ -17924,10 +17925,10 @@
         <v>234</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>519</v>
+        <v>984</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -17965,288 +17966,288 @@
         <v>234</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>533</v>
+        <v>967</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+    <row r="23" spans="1:28" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>16</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="14">
-        <v>2</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>2019</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>935</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="20" customFormat="1" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>17</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2010</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>18</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="G25" s="20">
+        <v>2018</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="20" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20">
+        <v>19</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="V23" s="31" t="s">
-        <v>950</v>
-      </c>
-      <c r="Y23" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA23" s="21" t="s">
-        <v>951</v>
-      </c>
-      <c r="AB23" s="21" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="21" customFormat="1" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21">
-        <v>17</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>668</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="I26" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20">
+        <v>20</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="G24" s="21">
-        <v>2010</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>860</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="21" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21">
-        <v>18</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="14">
-        <v>2</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="G27" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>862</v>
       </c>
-      <c r="G25" s="21">
-        <v>2018</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="I27" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="I25" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" s="21" t="s">
+    </row>
+    <row r="28" spans="1:28" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20">
+        <v>21</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>865</v>
       </c>
-      <c r="U25" s="21" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="21" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21">
-        <v>19</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="G26" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>954</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="R26" s="21" t="s">
-        <v>958</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>960</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>956</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="21" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21">
-        <v>20</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>875</v>
-      </c>
-      <c r="G27" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>876</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="21" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21">
-        <v>21</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>2022</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K28" s="21" t="s">
+      <c r="H28" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -18267,7 +18268,7 @@
         <v>187</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G29" s="1">
         <v>2019</v>
@@ -18361,16 +18362,16 @@
         <v>234</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>522</v>
+        <v>968</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>487</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>295</v>
@@ -18428,7 +18429,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>350</v>
@@ -18449,16 +18450,16 @@
         <v>234</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>486</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>488</v>
@@ -18502,22 +18503,22 @@
         <v>359</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -18634,7 +18635,7 @@
         <v>487</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -18675,383 +18676,383 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+    <row r="39" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
         <v>38</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>11</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="C39" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="13">
         <v>3</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <v>2020</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>39</v>
+      </c>
+      <c r="B40" s="20">
+        <v>12</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="13">
+        <v>3</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y40" s="20" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>40</v>
+      </c>
+      <c r="B41" s="20">
+        <v>13</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G41" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20">
+        <v>14</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="13">
+        <v>3</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="W42" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="Y42" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20">
+        <v>15</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H43" s="20" t="s">
         <v>880</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I43" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L39" s="21" t="s">
+      <c r="J43" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20">
+        <v>16</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="13">
+        <v>3</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>39</v>
-      </c>
-      <c r="B40" s="21">
-        <v>12</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="I44" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA44" s="20" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20">
+        <v>17</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="13">
         <v>3</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H40" s="21" t="s">
+      <c r="E45" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I45" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J40" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y40" s="21" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>40</v>
-      </c>
-      <c r="B41" s="21">
-        <v>13</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="14">
+      <c r="J45" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20">
+        <v>18</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="13">
         <v>3</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="G41" s="21">
+      <c r="E46" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="20">
         <v>2022</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H46" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="I41" s="31" t="s">
+      <c r="I46" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J41" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>41</v>
-      </c>
-      <c r="B42" s="21">
-        <v>14</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="J46" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20">
+        <v>19</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="13">
         <v>3</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="G42" s="21">
+      <c r="E47" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="20">
         <v>2022</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>885</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="H47" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="I47" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J42" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="O42" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="W42" s="21" t="s">
-        <v>963</v>
-      </c>
-      <c r="Y42" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>42</v>
-      </c>
-      <c r="B43" s="21">
-        <v>15</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="14">
+      <c r="J47" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20">
+        <v>20</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="13">
         <v>3</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="I43" s="31" t="s">
+      <c r="E48" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" s="20">
+        <v>2023</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="I48" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="J43" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>43</v>
-      </c>
-      <c r="B44" s="21">
-        <v>16</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="14">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA44" s="20" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
-        <v>44</v>
-      </c>
-      <c r="B45" s="21">
-        <v>17</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="14">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G45" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
-        <v>45</v>
-      </c>
-      <c r="B46" s="21">
-        <v>18</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="14">
-        <v>3</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G46" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>46</v>
-      </c>
-      <c r="B47" s="21">
-        <v>19</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="14">
-        <v>3</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>903</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
-        <v>47</v>
-      </c>
-      <c r="B48" s="21">
-        <v>20</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="14">
-        <v>3</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G48" s="21">
-        <v>2023</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K48" s="21" t="s">
+      <c r="J48" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K48" s="20" t="s">
         <v>260</v>
       </c>
     </row>
@@ -19069,7 +19070,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>391</v>
@@ -19131,10 +19132,10 @@
         <v>398</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -19189,7 +19190,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>404</v>
@@ -19213,42 +19214,42 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="21" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+    <row r="53" spans="1:26" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>5</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="14">
+      <c r="C53" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="13">
         <v>4</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>973</v>
-      </c>
-      <c r="G53" s="21">
+      <c r="E53" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>951</v>
+      </c>
+      <c r="G53" s="20">
         <v>2022</v>
       </c>
-      <c r="H53" s="21" t="s">
-        <v>974</v>
-      </c>
-      <c r="I53" s="21" t="s">
+      <c r="H53" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="J53" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>975</v>
+      <c r="J53" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19289,16 +19290,16 @@
         <v>411</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>539</v>
+        <v>969</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>487</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -19336,7 +19337,7 @@
         <v>234</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>533</v>
+        <v>967</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>420</v>
@@ -19345,19 +19346,19 @@
         <v>489</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>423</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="X55" s="1" t="s">
         <v>425</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -19398,16 +19399,16 @@
         <v>428</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>544</v>
+        <v>970</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>487</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>434</v>
@@ -19483,13 +19484,13 @@
         <v>234</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>546</v>
+        <v>971</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>443</v>
@@ -19527,19 +19528,19 @@
         <v>234</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>549</v>
+        <v>972</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>447</v>
+        <v>975</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -19556,7 +19557,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>451</v>
@@ -19580,19 +19581,19 @@
         <v>453</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -19627,25 +19628,25 @@
         <v>234</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>554</v>
+        <v>973</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -19721,7 +19722,7 @@
         <v>234</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>443</v>
@@ -19769,16 +19770,16 @@
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="33">
+      <c r="D65" s="26">
         <v>5</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>982</v>
-      </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33" t="s">
+      <c r="E65" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19808,7 +19809,7 @@
         <v>478</v>
       </c>
       <c r="I66" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>234</v>
@@ -19817,10 +19818,10 @@
         <v>234</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>533</v>
+        <v>967</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>452</v>
@@ -19829,310 +19830,310 @@
         <v>487</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" s="21" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="20" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20">
         <v>65</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>13</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="21">
+      <c r="C67" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="20">
         <v>5</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="G67" s="20">
+        <v>2021</v>
+      </c>
+      <c r="H67" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="G67" s="21">
+      <c r="I67" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="R67" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="U67" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="V67" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="W67" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="X67" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y67" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z67" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="20" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A68" s="20">
+        <v>66</v>
+      </c>
+      <c r="B68" s="20">
+        <v>14</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="20">
+        <v>5</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="G68" s="20">
+        <v>2018</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="S68" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="T68" s="20" t="s">
+        <v>945</v>
+      </c>
+      <c r="U68" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="V68" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="X68" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y68" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" s="20" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
+        <v>67</v>
+      </c>
+      <c r="B69" s="20">
+        <v>15</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="20">
+        <v>5</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="G69" s="20">
+        <v>2022</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O69" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="P69" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q69" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="R69" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="U69" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="V69" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="W69" s="20" t="s">
+        <v>948</v>
+      </c>
+      <c r="X69" s="24" t="s">
+        <v>986</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>68</v>
+      </c>
+      <c r="B70" s="20">
+        <v>16</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="20">
+        <v>5</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>885</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="G70" s="20">
+        <v>2019</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="R70" s="20" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>69</v>
+      </c>
+      <c r="B71" s="20">
+        <v>17</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="20">
+        <v>5</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="G71" s="20">
+        <v>2020</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="20" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
+        <v>70</v>
+      </c>
+      <c r="B72" s="20">
+        <v>18</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="20">
+        <v>5</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="G72" s="20">
         <v>2021</v>
       </c>
-      <c r="H67" s="21" t="s">
-        <v>906</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="R67" s="21" t="s">
-        <v>909</v>
-      </c>
-      <c r="U67" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="V67" s="21" t="s">
-        <v>912</v>
-      </c>
-      <c r="W67" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="X67" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y67" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z67" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" s="21" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>66</v>
-      </c>
-      <c r="B68" s="21">
-        <v>14</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" s="21">
-        <v>5</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>893</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>914</v>
-      </c>
-      <c r="G68" s="21">
-        <v>2018</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>913</v>
-      </c>
-      <c r="I68" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="J68" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="21" t="s">
-        <v>965</v>
-      </c>
-      <c r="R68" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="S68" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="T68" s="21" t="s">
-        <v>966</v>
-      </c>
-      <c r="U68" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="V68" s="31" t="s">
-        <v>912</v>
-      </c>
-      <c r="X68" s="31" t="s">
-        <v>967</v>
-      </c>
-      <c r="Y68" s="21" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="21" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
-        <v>67</v>
-      </c>
-      <c r="B69" s="21">
-        <v>15</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" s="21">
-        <v>5</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="G69" s="21">
-        <v>2022</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>921</v>
-      </c>
-      <c r="I69" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K69" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="O69" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="P69" s="31" t="s">
-        <v>927</v>
-      </c>
-      <c r="Q69" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="R69" s="21" t="s">
-        <v>968</v>
-      </c>
-      <c r="U69" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="V69" s="21" t="s">
-        <v>930</v>
-      </c>
-      <c r="W69" s="21" t="s">
-        <v>969</v>
-      </c>
-      <c r="X69" s="31" t="s">
-        <v>970</v>
-      </c>
-      <c r="Y69" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
-        <v>68</v>
-      </c>
-      <c r="B70" s="21">
-        <v>16</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="21">
-        <v>5</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>899</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="G70" s="21">
-        <v>2019</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K70" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q70" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="R70" s="21" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" s="21" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>69</v>
-      </c>
-      <c r="B71" s="21">
-        <v>17</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" s="21">
-        <v>5</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>862</v>
-      </c>
-      <c r="G71" s="21">
-        <v>2020</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K71" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="L71" s="21" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" s="21" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
-        <v>70</v>
-      </c>
-      <c r="B72" s="21">
-        <v>18</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" s="21">
-        <v>5</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>937</v>
-      </c>
-      <c r="G72" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>938</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="W72" s="21" t="s">
-        <v>971</v>
-      </c>
-      <c r="X72" s="21" t="s">
-        <v>972</v>
-      </c>
-      <c r="Y72" s="21" t="s">
-        <v>500</v>
+      <c r="H72" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W72" s="20" t="s">
+        <v>949</v>
+      </c>
+      <c r="X72" s="20" t="s">
+        <v>950</v>
+      </c>
+      <c r="Y72" s="20" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D75437-9739-4F86-9C1B-640395BB1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCA635-6D1B-4157-949A-A4814C427566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -1496,15 +1496,7 @@
     <t>Refer for best practices</t>
   </si>
   <si>
-    <t>Solutions such as Git allow the simultaneous collaboration with several projects while greatly simplifying each maintainer’s tasks of tracking and resolving bugs, handling feature requests, and launching upgrades (Torvalds, 2014a). This also helps to promote the collaborative aspect of software development since anyone can join an ongoing project and provide patches._x000D_
-_x000D_
-A test library is a series of scripts designed to test a given piece of software. It is meant to aid in quickly determining whether the software’s main modules are working as expected. Ideally, all functions of the code should be thus tested, but sometimes this is not possible because of the size or complexity of the project. What is fundamental to test, though, is whether the main logic and operations are working correctly whatever the running environment happens to be. Normally a test library is shipped together with the software and the tests are executed before installation to certify that the main features are working on the machine at hand. Another important aspect of any scientific software is that sample data be provided along with it, in a manner similar to that in which supplementary files are provided together with a manuscript. Through “real-world” examples, users can verify what to expect of the various analyses</t>
-  </si>
-  <si>
     <t>Software documentation can be categorized into two groups, one targeted at software developers, the other at the end users. The former is usually found in the source code, or is linked to it, and is used to explain the particularities of the code itself, which is important especially for software updating and customization. The latter typically uses nontechnical language and is aimed at aiding the user in the process of software installation and execution. Without proper code documentation the process of resolving a bug or including new developers in the team becomes a very complicated task. Users likewise need to have access to the documentation explaining its usage, which must include all directives for installation under different operating systems (when such is the case) and for the handling of parameters and input data prior to a run. It is also important to note that we need proper documentation for biologists, as they will be the ones installing and using the programs. With easy-to-follow guidelines and instructions for non-programmers, it is possible to improve software usability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It is our opinion that reviewing the source code from submitted papers should be possible if desired, though publishers would obviously have to search for even more specialized reviewers for the task. </t>
   </si>
   <si>
     <t xml:space="preserve">There are several advantages to making a software project open source (Perez-Riverol et al., 2014). </t>
@@ -3250,9 +3242,6 @@
   </si>
   <si>
     <t>Develop with a version control system platform (GitHub, Bitbucket); Have code level documentation; Use container technologies (Docker)</t>
-  </si>
-  <si>
-    <t>Develop with a version control system platform; Provide tests; Include sample data</t>
   </si>
   <si>
     <t>Develop with a version control system platform</t>
@@ -3323,6 +3312,17 @@
   </si>
   <si>
     <t>Develop with a version control system platform (GitHub, Bitbucket, GitLab, Assembla,Microsoft Visual Studio Team Services)</t>
+  </si>
+  <si>
+    <t>Develop with a version control system platform; Provide tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solutions such as Git allow the simultaneous collaboration with several projects while greatly simplifying each maintainer’s tasks of tracking and resolving bugs, handling feature requests, and launching upgrades (Torvalds, 2014a). This also helps to promote the collaborative aspect of software development since anyone can join an ongoing project and provide patches.
+A test library is a series of scripts designed to test a given piece of software. It is meant to aid in quickly determining whether the software’s main modules are working as expected. Ideally, all functions of the code should be thus tested, but sometimes this is not possible because of the size or complexity of the project. What is fundamental to test, though, is whether the main logic and operations are working correctly whatever the running environment happens to be. Normally a test library is shipped together with the software and the tests are executed before installation to certify that the main features are working on the machine at hand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is our opinion that reviewing the source code from submitted papers should be possible if desired, though publishers would obviously have to search for even more specialized reviewers for the task. 
+Another important aspect of any scientific software is that sample data be provided along with it, in a manner similar to that in which supplementary files are provided together with a manuscript. Through “real-world” examples, users can verify what to expect of the various analyses</t>
   </si>
 </sst>
 </file>
@@ -3502,6 +3502,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3517,17 +3528,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3827,7 +3827,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -3861,94 +3861,94 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -4110,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -4275,10 +4275,10 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D30" t="s">
         <v>54</v>
@@ -5049,35 +5049,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="C1" s="24"/>
+      <c r="B1" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>30</v>
@@ -5085,56 +5085,56 @@
     </row>
     <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="C7" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="C9" s="25"/>
+      <c r="B9" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -5145,41 +5145,41 @@
     </row>
     <row r="13" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="C13" s="26"/>
+        <v>579</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="C15" s="25"/>
+      <c r="B15" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>30</v>
@@ -5190,33 +5190,33 @@
     </row>
     <row r="19" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="C19" s="26"/>
+        <v>579</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="31"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="C21" s="25"/>
+      <c r="B21" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>30</v>
@@ -5224,44 +5224,44 @@
     </row>
     <row r="24" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>637</v>
-      </c>
-      <c r="C25" s="26"/>
+        <v>579</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="C25" s="31"/>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="C27" s="25"/>
+      <c r="B27" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>30</v>
@@ -5269,138 +5269,138 @@
     </row>
     <row r="30" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="C31" s="26"/>
+        <v>579</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="31"/>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="C33" s="25"/>
+      <c r="B33" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="C37" s="26"/>
+        <v>579</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="C37" s="31"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C39" s="24"/>
+      <c r="B39" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="C39" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C41" s="22"/>
+      <c r="B41" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="C45" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="C45" s="28"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C47" s="22"/>
+      <c r="B47" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>30</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>30</v>
@@ -5419,33 +5419,33 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="C51" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="C51" s="28"/>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C53" s="22"/>
+      <c r="B53" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C53" s="27"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>30</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>30</v>
@@ -5464,33 +5464,33 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="C57" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" s="28"/>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="C59" s="22"/>
+      <c r="B59" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="C59" s="27"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>30</v>
@@ -5498,99 +5498,99 @@
     </row>
     <row r="62" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="C63" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C63" s="28"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="C65" s="24"/>
+      <c r="B65" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="C65" s="29"/>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="C67" s="22"/>
+      <c r="B67" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="C67" s="27"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="C71" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="C71" s="28"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="C73" s="22"/>
+      <c r="B73" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>131</v>
@@ -5598,50 +5598,50 @@
     </row>
     <row r="76" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="C77" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="C77" s="28"/>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B79" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="C79" s="24"/>
+      <c r="B79" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="C79" s="29"/>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="C81" s="22"/>
+      <c r="B81" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="C81" s="27"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>30</v>
@@ -5649,44 +5649,44 @@
     </row>
     <row r="84" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="C85" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="C85" s="28"/>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="C87" s="22"/>
+      <c r="B87" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="C87" s="27"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>30</v>
@@ -5694,44 +5694,44 @@
     </row>
     <row r="90" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="C91" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="C91" s="28"/>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="C93" s="22"/>
+      <c r="B93" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C93" s="27"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>30</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>30</v>
@@ -5750,84 +5750,84 @@
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="C97" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="C97" s="28"/>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="C99" s="22"/>
+      <c r="B99" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C99" s="27"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="C103" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="C103" s="28"/>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="C105" s="22"/>
+      <c r="B105" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C105" s="27"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>30</v>
@@ -5838,15 +5838,37 @@
     </row>
     <row r="109" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="C109" s="23"/>
+        <v>579</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C109" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5863,28 +5885,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5909,19 +5909,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -5929,19 +5929,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -5949,19 +5949,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5969,16 +5969,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -5986,16 +5986,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -6003,16 +6003,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" s="6">
         <v>44869</v>
@@ -6140,14 +6140,14 @@
         <v>104</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H6" si="0">G3-I3</f>
+        <f t="shared" ref="H3:H4" si="0">G3-I3</f>
         <v>83</v>
       </c>
       <c r="I3" s="1">
         <v>21</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J6" si="1">I3-K3</f>
+        <f t="shared" ref="J3:J5" si="1">I3-K3</f>
         <v>10</v>
       </c>
       <c r="K3" s="1">
@@ -6174,7 +6174,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G6" si="2">F4</f>
+        <f t="shared" ref="G4:G5" si="2">F4</f>
         <v>47</v>
       </c>
       <c r="H4" s="1">
@@ -6269,7 +6269,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E7" s="1">
         <f>SUM(E2:E6)</f>
@@ -6326,26 +6326,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>822</v>
+      <c r="G1" s="25" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
@@ -6376,10 +6376,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D3" s="13">
         <v>2</v>
@@ -6402,7 +6402,7 @@
         <v>133</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D4" s="13">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D5" s="13">
         <v>4</v>
@@ -6448,7 +6448,7 @@
         <v>266</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D6" s="13">
         <v>5</v>
@@ -6471,7 +6471,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D7" s="13">
         <v>6</v>
@@ -6494,7 +6494,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
@@ -6514,10 +6514,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -6537,10 +6537,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D10" s="13">
         <v>3</v>
@@ -6560,10 +6560,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D11" s="13">
         <v>4</v>
@@ -6583,10 +6583,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -6606,10 +6606,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D13" s="13">
         <v>6</v>
@@ -6629,10 +6629,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D14" s="13">
         <v>7</v>
@@ -6652,10 +6652,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D15" s="13">
         <v>8</v>
@@ -6678,7 +6678,7 @@
         <v>134</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D16" s="13">
         <v>9</v>
@@ -6701,7 +6701,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D17" s="13">
         <v>10</v>
@@ -6721,10 +6721,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D18" s="13">
         <v>11</v>
@@ -6744,10 +6744,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D19" s="13">
         <v>12</v>
@@ -6767,10 +6767,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D20" s="13">
         <v>13</v>
@@ -6790,10 +6790,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D21" s="13">
         <v>14</v>
@@ -6816,7 +6816,7 @@
         <v>223</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D22" s="13">
         <v>15</v>
@@ -6839,7 +6839,7 @@
         <v>280</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D23" s="13">
         <v>16</v>
@@ -6862,7 +6862,7 @@
         <v>215</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D24" s="13">
         <v>17</v>
@@ -6882,10 +6882,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D25" s="13">
         <v>18</v>
@@ -6908,7 +6908,7 @@
         <v>133</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D26" s="13">
         <v>19</v>
@@ -6931,7 +6931,7 @@
         <v>133</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -6954,7 +6954,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D28" s="13">
         <v>2</v>
@@ -6977,7 +6977,7 @@
         <v>137</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -7000,7 +7000,7 @@
         <v>138</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D30" s="13">
         <v>4</v>
@@ -7023,7 +7023,7 @@
         <v>153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -7046,7 +7046,7 @@
         <v>139</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D32" s="13">
         <v>6</v>
@@ -7069,7 +7069,7 @@
         <v>140</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D33" s="13">
         <v>7</v>
@@ -7089,10 +7089,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D34" s="13">
         <v>8</v>
@@ -7115,7 +7115,7 @@
         <v>142</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D35" s="13">
         <v>9</v>
@@ -7135,10 +7135,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D36" s="13">
         <v>10</v>
@@ -7161,7 +7161,7 @@
         <v>145</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D37" s="13">
         <v>11</v>
@@ -7184,7 +7184,7 @@
         <v>134</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D38" s="13">
         <v>12</v>
@@ -7207,7 +7207,7 @@
         <v>135</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D39" s="13">
         <v>13</v>
@@ -7230,7 +7230,7 @@
         <v>146</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D40" s="13">
         <v>14</v>
@@ -7253,7 +7253,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D41" s="13">
         <v>15</v>
@@ -7273,10 +7273,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D42" s="13">
         <v>16</v>
@@ -7299,7 +7299,7 @@
         <v>149</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D43" s="13">
         <v>17</v>
@@ -7848,7 +7848,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>151</v>
@@ -7917,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>151</v>
@@ -7986,7 +7986,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>151</v>
@@ -8055,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>135</v>
@@ -8124,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>135</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>135</v>
@@ -8216,7 +8216,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>135</v>
@@ -8308,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>135</v>
@@ -8423,7 +8423,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>135</v>
@@ -8446,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>135</v>
@@ -8469,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>135</v>
@@ -8492,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>135</v>
@@ -8630,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>135</v>
@@ -8768,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>135</v>
@@ -9067,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>135</v>
@@ -9090,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>135</v>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>135</v>
@@ -9136,7 +9136,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>135</v>
@@ -9159,7 +9159,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>135</v>
@@ -9182,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>135</v>
@@ -9205,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>135</v>
@@ -9228,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>135</v>
@@ -9251,7 +9251,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>135</v>
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>135</v>
@@ -9297,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>135</v>
@@ -9320,7 +9320,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>135</v>
@@ -9343,7 +9343,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>135</v>
@@ -9366,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>135</v>
@@ -9504,7 +9504,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>135</v>
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>135</v>
@@ -9665,7 +9665,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>135</v>
@@ -9688,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>135</v>
@@ -9918,7 +9918,7 @@
         <v>3</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>186</v>
@@ -9964,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>186</v>
@@ -10036,7 +10036,7 @@
         <v>195</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D162" s="13">
         <v>3</v>
@@ -10059,7 +10059,7 @@
         <v>196</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D163" s="13">
         <v>4</v>
@@ -10082,7 +10082,7 @@
         <v>197</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D164" s="13">
         <v>5</v>
@@ -10105,7 +10105,7 @@
         <v>198</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D165" s="13">
         <v>6</v>
@@ -10128,7 +10128,7 @@
         <v>199</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D166" s="13">
         <v>7</v>
@@ -10151,7 +10151,7 @@
         <v>153</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D167" s="13">
         <v>8</v>
@@ -10174,7 +10174,7 @@
         <v>200</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D168" s="13">
         <v>9</v>
@@ -10197,7 +10197,7 @@
         <v>201</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D169" s="13">
         <v>10</v>
@@ -10220,7 +10220,7 @@
         <v>202</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D170" s="13">
         <v>11</v>
@@ -10243,7 +10243,7 @@
         <v>203</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D171" s="13">
         <v>12</v>
@@ -10266,7 +10266,7 @@
         <v>204</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D172" s="13">
         <v>13</v>
@@ -10289,7 +10289,7 @@
         <v>205</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D173" s="13">
         <v>14</v>
@@ -10312,7 +10312,7 @@
         <v>371</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D174" s="13">
         <v>15</v>
@@ -10335,7 +10335,7 @@
         <v>206</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D175" s="13">
         <v>16</v>
@@ -10358,7 +10358,7 @@
         <v>146</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D176" s="13">
         <v>17</v>
@@ -10381,7 +10381,7 @@
         <v>207</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D177" s="13">
         <v>18</v>
@@ -10404,7 +10404,7 @@
         <v>208</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D178" s="13">
         <v>19</v>
@@ -10427,7 +10427,7 @@
         <v>209</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D179" s="13">
         <v>20</v>
@@ -10450,7 +10450,7 @@
         <v>210</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D180" s="13">
         <v>21</v>
@@ -10473,7 +10473,7 @@
         <v>211</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D181" s="13">
         <v>22</v>
@@ -10496,7 +10496,7 @@
         <v>212</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D182" s="13">
         <v>23</v>
@@ -10516,7 +10516,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>214</v>
@@ -10539,7 +10539,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>214</v>
@@ -10562,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>214</v>
@@ -10585,7 +10585,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>214</v>
@@ -10631,7 +10631,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>214</v>
@@ -10654,7 +10654,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>214</v>
@@ -10677,7 +10677,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C190" s="14" t="s">
         <v>214</v>
@@ -10700,7 +10700,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>214</v>
@@ -10723,7 +10723,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>214</v>
@@ -10746,7 +10746,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>214</v>
@@ -10769,7 +10769,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>214</v>
@@ -10792,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>214</v>
@@ -10838,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>214</v>
@@ -11068,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C207" s="14" t="s">
         <v>214</v>
@@ -11091,7 +11091,7 @@
         <v>4</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>13</v>
@@ -11114,7 +11114,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>13</v>
@@ -11137,7 +11137,7 @@
         <v>4</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>13</v>
@@ -11160,7 +11160,7 @@
         <v>4</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>13</v>
@@ -11183,7 +11183,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>13</v>
@@ -11206,7 +11206,7 @@
         <v>4</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>13</v>
@@ -11229,7 +11229,7 @@
         <v>4</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>13</v>
@@ -11252,7 +11252,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>13</v>
@@ -11275,7 +11275,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>13</v>
@@ -11298,7 +11298,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>13</v>
@@ -11321,7 +11321,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>13</v>
@@ -11344,7 +11344,7 @@
         <v>4</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>13</v>
@@ -11367,7 +11367,7 @@
         <v>4</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>13</v>
@@ -11390,7 +11390,7 @@
         <v>4</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>13</v>
@@ -11413,7 +11413,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>13</v>
@@ -11436,7 +11436,7 @@
         <v>4</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>13</v>
@@ -11459,7 +11459,7 @@
         <v>4</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>13</v>
@@ -11482,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>13</v>
@@ -11505,7 +11505,7 @@
         <v>4</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>13</v>
@@ -11528,7 +11528,7 @@
         <v>4</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>13</v>
@@ -11551,7 +11551,7 @@
         <v>4</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>13</v>
@@ -11574,7 +11574,7 @@
         <v>4</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>13</v>
@@ -11597,7 +11597,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>13</v>
@@ -11620,7 +11620,7 @@
         <v>4</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>13</v>
@@ -11643,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>13</v>
@@ -11666,7 +11666,7 @@
         <v>4</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>13</v>
@@ -11689,7 +11689,7 @@
         <v>4</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>13</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>13</v>
@@ -11735,7 +11735,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>13</v>
@@ -11758,7 +11758,7 @@
         <v>4</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>13</v>
@@ -11781,7 +11781,7 @@
         <v>4</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>13</v>
@@ -11804,7 +11804,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>13</v>
@@ -11827,7 +11827,7 @@
         <v>4</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>13</v>
@@ -11850,7 +11850,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>13</v>
@@ -11873,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>13</v>
@@ -11896,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>13</v>
@@ -11919,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>13</v>
@@ -11942,7 +11942,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>13</v>
@@ -11965,7 +11965,7 @@
         <v>4</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>13</v>
@@ -11988,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>13</v>
@@ -12011,7 +12011,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>13</v>
@@ -12034,7 +12034,7 @@
         <v>4</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>13</v>
@@ -12057,7 +12057,7 @@
         <v>4</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>13</v>
@@ -12080,7 +12080,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>13</v>
@@ -12103,7 +12103,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>13</v>
@@ -12126,7 +12126,7 @@
         <v>4</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>13</v>
@@ -12149,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>13</v>
@@ -12172,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>13</v>
@@ -12218,7 +12218,7 @@
         <v>4</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>13</v>
@@ -12241,7 +12241,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>13</v>
@@ -12264,7 +12264,7 @@
         <v>4</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>13</v>
@@ -12287,7 +12287,7 @@
         <v>4</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>13</v>
@@ -12310,7 +12310,7 @@
         <v>4</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>13</v>
@@ -12333,7 +12333,7 @@
         <v>4</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>13</v>
@@ -12356,7 +12356,7 @@
         <v>4</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>13</v>
@@ -12379,7 +12379,7 @@
         <v>4</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>13</v>
@@ -12402,7 +12402,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>13</v>
@@ -12425,7 +12425,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>13</v>
@@ -12448,7 +12448,7 @@
         <v>4</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>13</v>
@@ -12494,7 +12494,7 @@
         <v>4</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>13</v>
@@ -12517,7 +12517,7 @@
         <v>4</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>13</v>
@@ -12540,7 +12540,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>13</v>
@@ -12563,7 +12563,7 @@
         <v>4</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>13</v>
@@ -12609,7 +12609,7 @@
         <v>4</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C274" s="13" t="s">
         <v>13</v>
@@ -12632,7 +12632,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>13</v>
@@ -12655,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>13</v>
@@ -12678,7 +12678,7 @@
         <v>4</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>13</v>
@@ -12701,7 +12701,7 @@
         <v>4</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>13</v>
@@ -12724,7 +12724,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>13</v>
@@ -12747,7 +12747,7 @@
         <v>4</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>13</v>
@@ -12770,7 +12770,7 @@
         <v>4</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>13</v>
@@ -12793,7 +12793,7 @@
         <v>4</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>13</v>
@@ -12816,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>13</v>
@@ -12839,7 +12839,7 @@
         <v>4</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>13</v>
@@ -12885,7 +12885,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>13</v>
@@ -12908,7 +12908,7 @@
         <v>4</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>13</v>
@@ -12931,7 +12931,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>13</v>
@@ -12954,7 +12954,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>13</v>
@@ -12977,7 +12977,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>13</v>
@@ -13000,7 +13000,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>13</v>
@@ -13023,7 +13023,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>13</v>
@@ -13046,7 +13046,7 @@
         <v>4</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>13</v>
@@ -13069,7 +13069,7 @@
         <v>4</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>13</v>
@@ -13092,7 +13092,7 @@
         <v>4</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C295" s="13" t="s">
         <v>13</v>
@@ -13115,7 +13115,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>13</v>
@@ -13207,7 +13207,7 @@
         <v>5</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>15</v>
@@ -13322,7 +13322,7 @@
         <v>5</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>15</v>
@@ -13345,7 +13345,7 @@
         <v>5</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>15</v>
@@ -13368,7 +13368,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>15</v>
@@ -13394,7 +13394,7 @@
         <v>230</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D308" s="13">
         <v>12</v>
@@ -13414,10 +13414,10 @@
         <v>5</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D309" s="13">
         <v>13</v>
@@ -13437,10 +13437,10 @@
         <v>5</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D310" s="13">
         <v>14</v>
@@ -13460,10 +13460,10 @@
         <v>5</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D311" s="13">
         <v>15</v>
@@ -13483,10 +13483,10 @@
         <v>5</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D312" s="13">
         <v>16</v>
@@ -13506,10 +13506,10 @@
         <v>5</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D313" s="13">
         <v>17</v>
@@ -13529,10 +13529,10 @@
         <v>5</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D314" s="13">
         <v>18</v>
@@ -13575,10 +13575,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13598,92 +13598,92 @@
     <col min="28" max="16384" width="63.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:29" s="23" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13701,16 +13701,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G2" s="15">
         <v>2022</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>233</v>
@@ -13719,28 +13719,28 @@
         <v>233</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>231</v>
@@ -13766,7 +13766,7 @@
         <v>2022</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>233</v>
@@ -13775,22 +13775,22 @@
         <v>233</v>
       </c>
       <c r="L3" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>836</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
@@ -14676,7 +14676,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>238</v>
@@ -14685,7 +14685,7 @@
         <v>2019</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>151</v>
@@ -14697,19 +14697,19 @@
         <v>233</v>
       </c>
       <c r="U23" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="AB23" s="15" t="s">
         <v>844</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>843</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="AB23" s="15" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14726,19 +14726,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G24" s="15">
         <v>2010</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>259</v>
@@ -14761,31 +14761,31 @@
         <v>2</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G25" s="15">
         <v>2018</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>852</v>
-      </c>
       <c r="U25" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14802,19 +14802,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G26" s="15">
         <v>2021</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>233</v>
@@ -14823,25 +14823,25 @@
         <v>233</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="S26" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="Y26" s="15" t="s">
         <v>857</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="Y26" s="15" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14858,19 +14858,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G27" s="15">
         <v>2021</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>233</v>
@@ -14879,7 +14879,7 @@
         <v>259</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -14896,19 +14896,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G28" s="15">
         <v>2022</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>259</v>
@@ -15095,7 +15095,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>349</v>
@@ -15353,7 +15353,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>238</v>
@@ -15362,7 +15362,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>214</v>
@@ -15374,7 +15374,7 @@
         <v>259</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -15391,7 +15391,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>250</v>
@@ -15400,7 +15400,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>214</v>
@@ -15412,7 +15412,7 @@
         <v>233</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -15429,16 +15429,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G41" s="15">
         <v>2022</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>214</v>
@@ -15464,7 +15464,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>378</v>
@@ -15473,7 +15473,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>214</v>
@@ -15485,22 +15485,22 @@
         <v>233</v>
       </c>
       <c r="L42" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y42" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="O42" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="U42" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="W42" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="Y42" s="15" t="s">
+      <c r="AA42" s="15" t="s">
         <v>873</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -15517,7 +15517,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>238</v>
@@ -15526,7 +15526,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>214</v>
@@ -15552,7 +15552,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>231</v>
@@ -15561,7 +15561,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>214</v>
@@ -15587,7 +15587,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>316</v>
@@ -15596,7 +15596,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>214</v>
@@ -15608,7 +15608,7 @@
         <v>259</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -15625,7 +15625,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>316</v>
@@ -15634,7 +15634,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>214</v>
@@ -15646,7 +15646,7 @@
         <v>259</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -15663,7 +15663,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>238</v>
@@ -15672,7 +15672,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>214</v>
@@ -15698,7 +15698,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>316</v>
@@ -15707,7 +15707,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>214</v>
@@ -15733,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>390</v>
@@ -15850,7 +15850,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>403</v>
@@ -15888,16 +15888,16 @@
         <v>4</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -15909,7 +15909,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
@@ -16024,7 +16024,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="330" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="255" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -16062,22 +16062,22 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q56" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="S56" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="W56" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="S56" s="15" t="s">
+      <c r="Y56" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="W56" s="15" t="s">
+      <c r="Z56" s="15" t="s">
         <v>431</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -16094,7 +16094,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>231</v>
@@ -16103,7 +16103,7 @@
         <v>2019</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>371</v>
@@ -16115,7 +16115,7 @@
         <v>259</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="90" x14ac:dyDescent="0.25">
@@ -16135,10 +16135,10 @@
         <v>226</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>15</v>
@@ -16150,16 +16150,16 @@
         <v>233</v>
       </c>
       <c r="O58" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="U58" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y58" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="U58" s="15" t="s">
+      <c r="Z58" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="Y58" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="Z58" s="15" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -16179,10 +16179,10 @@
         <v>227</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>15</v>
@@ -16194,19 +16194,19 @@
         <v>233</v>
       </c>
       <c r="O59" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q59" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="P59" s="15" t="s">
+      <c r="Y59" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="Z59" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="Y59" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z59" s="15" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="270" x14ac:dyDescent="0.25">
@@ -16223,16 +16223,16 @@
         <v>5</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G60" s="15">
         <v>2018</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>15</v>
@@ -16244,19 +16244,19 @@
         <v>233</v>
       </c>
       <c r="L60" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q60" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="O60" s="15" t="s">
+      <c r="R60" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="Q60" s="15" t="s">
+      <c r="U60" s="15" t="s">
         <v>454</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="345" x14ac:dyDescent="0.25">
@@ -16276,13 +16276,13 @@
         <v>228</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G61" s="15">
         <v>2017</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>15</v>
@@ -16294,25 +16294,25 @@
         <v>233</v>
       </c>
       <c r="L61" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q61" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="O61" s="15" t="s">
+      <c r="U61" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="Q61" s="15" t="s">
+      <c r="V61" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="U61" s="15" t="s">
+      <c r="W61" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="V61" s="15" t="s">
+      <c r="Y61" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="W61" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y61" s="15" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -16332,13 +16332,13 @@
         <v>229</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G62" s="15">
         <v>2014</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>15</v>
@@ -16350,10 +16350,10 @@
         <v>259</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="375" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="360" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -16367,16 +16367,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G63" s="15">
         <v>2018</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>15</v>
@@ -16388,10 +16388,10 @@
         <v>233</v>
       </c>
       <c r="Y63" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z63" s="15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -16408,16 +16408,16 @@
         <v>5</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G64" s="15">
         <v>2018</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>15</v>
@@ -16429,7 +16429,7 @@
         <v>259</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -16449,43 +16449,43 @@
         <v>230</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G65" s="15">
         <v>2020</v>
       </c>
       <c r="H65" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="O65" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L65" s="15" t="s">
+      <c r="Q65" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="O65" s="15" t="s">
+      <c r="R65" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="W65" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="R65" s="15" t="s">
+      <c r="X65" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="W65" s="15" t="s">
+      <c r="Y65" s="15" t="s">
         <v>482</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y65" s="15" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -16502,43 +16502,43 @@
         <v>5</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G66" s="15">
         <v>2021</v>
       </c>
       <c r="H66" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="R66" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="U66" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="V66" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="W66" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="X66" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="I66" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="U66" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="V66" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="W66" s="15" t="s">
-        <v>892</v>
-      </c>
-      <c r="X66" s="15" t="s">
+      <c r="Y66" s="15" t="s">
         <v>893</v>
-      </c>
-      <c r="Y66" s="15" t="s">
-        <v>895</v>
       </c>
       <c r="Z66" s="15" t="s">
         <v>294</v>
@@ -16558,43 +16558,43 @@
         <v>5</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G67" s="15">
         <v>2018</v>
       </c>
       <c r="H67" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="S67" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="I67" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="O67" s="15" t="s">
-        <v>905</v>
-      </c>
-      <c r="R67" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="S67" s="15" t="s">
+      <c r="U67" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="X67" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="Y67" s="15" t="s">
         <v>900</v>
-      </c>
-      <c r="U67" s="15" t="s">
-        <v>904</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="Y67" s="15" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -16611,19 +16611,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G68" s="15">
         <v>2022</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>233</v>
@@ -16632,28 +16632,28 @@
         <v>233</v>
       </c>
       <c r="O68" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="P68" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="W68" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="Y68" s="15" t="s">
         <v>911</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q68" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="V68" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="W68" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="Y68" s="15" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -16670,28 +16670,28 @@
         <v>5</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G69" s="15">
         <v>2019</v>
       </c>
       <c r="H69" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q69" s="15" t="s">
         <v>917</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q69" s="15" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16708,19 +16708,19 @@
         <v>5</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G70" s="15">
         <v>2020</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>233</v>
@@ -16729,7 +16729,7 @@
         <v>259</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16746,31 +16746,31 @@
         <v>5</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G71" s="15">
         <v>2021</v>
       </c>
       <c r="H71" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="W71" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="Y71" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="W71" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y71" s="15" t="s">
-        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -16821,10 +16821,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomLeft" activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16861,91 +16861,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>822</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="24" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16963,16 +16963,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G2" s="15">
         <v>2022</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>233</v>
@@ -16981,25 +16981,25 @@
         <v>233</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="W2" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>928</v>
-      </c>
       <c r="Y2" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="AA2" s="15" t="s">
         <v>927</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>231</v>
@@ -17025,7 +17025,7 @@
         <v>2022</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>233</v>
@@ -17034,25 +17034,25 @@
         <v>233</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M3" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>973</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>931</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>932</v>
-      </c>
       <c r="X3" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17087,16 +17087,16 @@
         <v>233</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="U4" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>485</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -17134,7 +17134,7 @@
         <v>240</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17172,22 +17172,22 @@
         <v>233</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S6" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y6" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="V6" s="15" t="s">
+      <c r="AA6" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
@@ -17222,19 +17222,19 @@
         <v>233</v>
       </c>
       <c r="U7" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y7" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="AA7" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="X7" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -17272,16 +17272,16 @@
         <v>233</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -17436,16 +17436,16 @@
         <v>275</v>
       </c>
       <c r="U12" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="X12" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="W12" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>487</v>
-      </c>
       <c r="Y12" s="15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
         <v>280</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G13" s="15">
         <v>2017</v>
@@ -17486,22 +17486,22 @@
         <v>283</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Q13" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="W13" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="X13" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="AA13" s="15" t="s">
         <v>504</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA13" s="15" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17542,7 +17542,7 @@
         <v>292</v>
       </c>
       <c r="Y14" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Z14" s="15" t="s">
         <v>294</v>
@@ -17571,7 +17571,7 @@
         <v>2016</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>135</v>
@@ -17662,13 +17662,13 @@
         <v>303</v>
       </c>
       <c r="U17" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="X17" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="X17" s="15" t="s">
-        <v>487</v>
-      </c>
       <c r="Y17" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -17782,31 +17782,31 @@
         <v>233</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>321</v>
       </c>
       <c r="U20" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="X20" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="Y20" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y20" s="15" t="s">
-        <v>513</v>
       </c>
       <c r="Z20" s="15" t="s">
         <v>294</v>
       </c>
       <c r="AA20" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AB20" s="15" t="s">
         <v>327</v>
@@ -17847,10 +17847,10 @@
         <v>233</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
@@ -17888,28 +17888,28 @@
         <v>233</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>382</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="U22" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="V22" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="W22" s="15" t="s">
+      <c r="Y22" s="15" t="s">
         <v>528</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y22" s="15" t="s">
-        <v>530</v>
       </c>
       <c r="AB22" s="15" t="s">
         <v>389</v>
@@ -17929,7 +17929,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>238</v>
@@ -17938,7 +17938,7 @@
         <v>2019</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>151</v>
@@ -17950,19 +17950,19 @@
         <v>233</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="V23" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="AB23" s="15" t="s">
         <v>933</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="AB23" s="15" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17979,19 +17979,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G24" s="15">
         <v>2010</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>259</v>
@@ -18014,31 +18014,31 @@
         <v>2</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G25" s="15">
         <v>2018</v>
       </c>
       <c r="H25" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>852</v>
-      </c>
       <c r="U25" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18055,19 +18055,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G26" s="15">
         <v>2021</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>233</v>
@@ -18076,28 +18076,28 @@
         <v>233</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N26" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="U26" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="O26" s="15" t="s">
-        <v>980</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>982</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>939</v>
-      </c>
       <c r="Y26" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -18114,19 +18114,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G27" s="15">
         <v>2021</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>233</v>
@@ -18135,7 +18135,7 @@
         <v>259</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -18152,19 +18152,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G28" s="15">
         <v>2022</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>259</v>
@@ -18190,7 +18190,7 @@
         <v>187</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G29" s="15">
         <v>2019</v>
@@ -18284,16 +18284,16 @@
         <v>233</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W31" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y31" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Z31" s="15" t="s">
         <v>294</v>
@@ -18351,7 +18351,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>349</v>
@@ -18372,19 +18372,19 @@
         <v>233</v>
       </c>
       <c r="L33" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="W33" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="Q33" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="U33" s="15" t="s">
+      <c r="X33" s="15" t="s">
         <v>485</v>
-      </c>
-      <c r="W33" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -18425,22 +18425,22 @@
         <v>358</v>
       </c>
       <c r="O34" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="W34" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="Y34" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="U34" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="W34" s="15" t="s">
+      <c r="Z34" s="15" t="s">
         <v>523</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -18554,10 +18554,10 @@
         <v>233</v>
       </c>
       <c r="W37" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -18612,7 +18612,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>238</v>
@@ -18621,7 +18621,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>214</v>
@@ -18633,7 +18633,7 @@
         <v>259</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -18650,7 +18650,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>250</v>
@@ -18659,7 +18659,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>214</v>
@@ -18671,7 +18671,7 @@
         <v>233</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -18688,16 +18688,16 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G41" s="15">
         <v>2022</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>214</v>
@@ -18723,7 +18723,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>378</v>
@@ -18732,7 +18732,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>214</v>
@@ -18744,19 +18744,19 @@
         <v>233</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W42" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
@@ -18773,7 +18773,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>238</v>
@@ -18782,7 +18782,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>214</v>
@@ -18808,7 +18808,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>231</v>
@@ -18817,7 +18817,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>214</v>
@@ -18829,7 +18829,7 @@
         <v>259</v>
       </c>
       <c r="AA44" s="15" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -18846,7 +18846,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>316</v>
@@ -18855,7 +18855,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>214</v>
@@ -18867,7 +18867,7 @@
         <v>259</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -18884,7 +18884,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>316</v>
@@ -18893,7 +18893,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>214</v>
@@ -18905,7 +18905,7 @@
         <v>259</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -18922,7 +18922,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>238</v>
@@ -18931,7 +18931,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>214</v>
@@ -18957,7 +18957,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>316</v>
@@ -18966,7 +18966,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>214</v>
@@ -18992,7 +18992,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>390</v>
@@ -19054,10 +19054,10 @@
         <v>397</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -19112,7 +19112,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>403</v>
@@ -19150,16 +19150,16 @@
         <v>4</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -19171,7 +19171,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19212,16 +19212,16 @@
         <v>410</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W54" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -19259,28 +19259,28 @@
         <v>233</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>419</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="U55" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V55" s="15" t="s">
         <v>422</v>
       </c>
       <c r="W55" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="X55" s="15" t="s">
         <v>424</v>
       </c>
       <c r="Y55" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -19321,19 +19321,19 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>495</v>
+        <v>978</v>
       </c>
       <c r="W56" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z56" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
@@ -19350,7 +19350,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>231</v>
@@ -19359,7 +19359,7 @@
         <v>2019</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>371</v>
@@ -19371,7 +19371,7 @@
         <v>259</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="90" x14ac:dyDescent="0.25">
@@ -19391,10 +19391,10 @@
         <v>226</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>15</v>
@@ -19406,16 +19406,16 @@
         <v>233</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Y58" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Z58" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -19435,10 +19435,10 @@
         <v>227</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>15</v>
@@ -19450,19 +19450,19 @@
         <v>233</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Y59" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Z59" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -19479,16 +19479,16 @@
         <v>5</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G60" s="15">
         <v>2018</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>15</v>
@@ -19500,19 +19500,19 @@
         <v>233</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q60" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -19532,13 +19532,13 @@
         <v>228</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G61" s="15">
         <v>2017</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>15</v>
@@ -19550,25 +19550,25 @@
         <v>233</v>
       </c>
       <c r="L61" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="U61" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="W61" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="X61" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="O61" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="Q61" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="U61" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="W61" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="X61" s="15" t="s">
-        <v>544</v>
-      </c>
       <c r="Y61" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -19588,13 +19588,13 @@
         <v>229</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G62" s="15">
         <v>2014</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I62" s="15" t="s">
         <v>15</v>
@@ -19606,7 +19606,7 @@
         <v>259</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="90" x14ac:dyDescent="0.25">
@@ -19623,16 +19623,16 @@
         <v>5</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G63" s="15">
         <v>2018</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>15</v>
@@ -19644,10 +19644,10 @@
         <v>233</v>
       </c>
       <c r="Y63" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Z63" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -19664,16 +19664,16 @@
         <v>5</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G64" s="15">
         <v>2018</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>15</v>
@@ -19685,7 +19685,7 @@
         <v>259</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -19705,16 +19705,16 @@
         <v>230</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G65" s="15">
         <v>2020</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J65" s="15" t="s">
         <v>233</v>
@@ -19723,22 +19723,22 @@
         <v>233</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="R65" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W65" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X65" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Y65" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -19755,19 +19755,19 @@
         <v>5</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G66" s="15">
         <v>2021</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J66" s="15" t="s">
         <v>259</v>
@@ -19776,22 +19776,22 @@
         <v>233</v>
       </c>
       <c r="R66" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X66" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Y66" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Z66" s="15" t="s">
         <v>294</v>
@@ -19811,19 +19811,19 @@
         <v>5</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G67" s="15">
         <v>2018</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>233</v>
@@ -19832,28 +19832,28 @@
         <v>233</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="R67" s="15" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="S67" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="T67" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V67" s="16" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="Y67" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -19870,19 +19870,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G68" s="15">
         <v>2022</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>233</v>
@@ -19891,31 +19891,31 @@
         <v>233</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="P68" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="Q68" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V68" s="15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="Y68" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19932,31 +19932,31 @@
         <v>5</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G69" s="15">
         <v>2019</v>
       </c>
       <c r="H69" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="R69" s="15" t="s">
         <v>917</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q69" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="R69" s="15" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19973,19 +19973,19 @@
         <v>5</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G70" s="15">
         <v>2020</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>233</v>
@@ -19994,7 +19994,7 @@
         <v>259</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20011,19 +20011,19 @@
         <v>5</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G71" s="15">
         <v>2021</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J71" s="15" t="s">
         <v>233</v>
@@ -20032,13 +20032,13 @@
         <v>233</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="X71" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="Y71" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCA635-6D1B-4157-949A-A4814C427566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB86F1-EC3B-4A67-99C7-695E5D80CEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="985">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -3113,12 +3113,6 @@
 packages; PEP 8 Style Guide for Python Code</t>
   </si>
   <si>
-    <t>Source code; Binaries; Containers; Software as a service</t>
-  </si>
-  <si>
-    <t>The FAIR4RS Principles can be applied to any research software, regardless of the license. To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation</t>
-  </si>
-  <si>
     <t>https://www.research-software.nl/software/cffconvert</t>
   </si>
   <si>
@@ -3323,6 +3317,12 @@
   <si>
     <t xml:space="preserve"> It is our opinion that reviewing the source code from submitted papers should be possible if desired, though publishers would obviously have to search for even more specialized reviewers for the task. 
 Another important aspect of any scientific software is that sample data be provided along with it, in a manner similar to that in which supplementary files are provided together with a manuscript. Through “real-world” examples, users can verify what to expect of the various analyses</t>
+  </si>
+  <si>
+    <t>Source code; Binaries; Containers</t>
+  </si>
+  <si>
+    <t>https://spdx.dev/; The FAIR4RS Principles can be applied to any research software, regardless of the license. To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation</t>
   </si>
 </sst>
 </file>
@@ -3447,7 +3447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3527,6 +3527,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5918,10 +5921,10 @@
         <v>638</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -5941,7 +5944,7 @@
         <v>649</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -5952,16 +5955,16 @@
         <v>647</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>829</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5986,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>641</v>
@@ -6003,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>643</v>
@@ -13575,10 +13578,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13725,10 +13728,10 @@
         <v>824</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>832</v>
@@ -14829,16 +14832,16 @@
         <v>854</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>855</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Y26" s="15" t="s">
         <v>857</v>
@@ -15891,13 +15894,13 @@
         <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -15909,7 +15912,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
@@ -16062,13 +16065,13 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="Q56" s="15" t="s">
         <v>428</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>429</v>
@@ -16821,10 +16824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="S57" sqref="S57"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16987,7 +16990,7 @@
         <v>924</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>483</v>
@@ -17040,19 +17043,16 @@
         <v>928</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>929</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>485</v>
+        <v>983</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17087,7 +17087,7 @@
         <v>233</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>483</v>
@@ -17172,7 +17172,7 @@
         <v>233</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>493</v>
@@ -17486,7 +17486,7 @@
         <v>283</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="Q13" s="15" t="s">
         <v>500</v>
@@ -17782,7 +17782,7 @@
         <v>233</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>507</v>
@@ -17847,7 +17847,7 @@
         <v>233</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>513</v>
@@ -17888,7 +17888,7 @@
         <v>233</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>382</v>
@@ -17953,16 +17953,16 @@
         <v>525</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="Y23" s="15" t="s">
         <v>496</v>
       </c>
       <c r="AA23" s="15" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AB23" s="15" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18079,22 +18079,22 @@
         <v>856</v>
       </c>
       <c r="N26" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="U26" s="15" t="s">
         <v>935</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>977</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>937</v>
       </c>
       <c r="Y26" s="15" t="s">
         <v>495</v>
@@ -18284,7 +18284,7 @@
         <v>233</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>515</v>
@@ -18671,7 +18671,7 @@
         <v>233</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -18747,13 +18747,13 @@
         <v>869</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="U42" s="15" t="s">
         <v>532</v>
       </c>
       <c r="W42" s="15" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="Y42" s="15" t="s">
         <v>496</v>
@@ -18829,7 +18829,7 @@
         <v>259</v>
       </c>
       <c r="AA44" s="15" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -19153,13 +19153,13 @@
         <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -19171,7 +19171,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19212,7 +19212,7 @@
         <v>410</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="R54" s="15" t="s">
         <v>530</v>
@@ -19259,7 +19259,7 @@
         <v>233</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>419</v>
@@ -19321,10 +19321,10 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>484</v>
@@ -19406,7 +19406,7 @@
         <v>233</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="U58" s="15" t="s">
         <v>535</v>
@@ -19450,10 +19450,10 @@
         <v>233</v>
       </c>
       <c r="O59" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="P59" s="15" t="s">
         <v>967</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>969</v>
       </c>
       <c r="Q59" s="15" t="s">
         <v>517</v>
@@ -19553,7 +19553,7 @@
         <v>540</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="Q61" s="15" t="s">
         <v>517</v>
@@ -19726,7 +19726,7 @@
         <v>544</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>449</v>
@@ -19832,7 +19832,7 @@
         <v>233</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>901</v>
@@ -19841,7 +19841,7 @@
         <v>493</v>
       </c>
       <c r="T67" s="15" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="U67" s="15" t="s">
         <v>532</v>
@@ -19850,7 +19850,7 @@
         <v>895</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="Y67" s="15" t="s">
         <v>545</v>
@@ -19891,7 +19891,7 @@
         <v>233</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="P68" s="16" t="s">
         <v>910</v>
@@ -19900,7 +19900,7 @@
         <v>517</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="U68" s="15" t="s">
         <v>532</v>
@@ -19909,10 +19909,10 @@
         <v>913</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="Y68" s="15" t="s">
         <v>496</v>
@@ -20032,10 +20032,10 @@
         <v>233</v>
       </c>
       <c r="W71" s="15" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="X71" s="15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="Y71" s="15" t="s">
         <v>496</v>
@@ -20084,6 +20084,7 @@
     <hyperlink ref="V67" r:id="rId39" xr:uid="{44F237A5-9F53-440F-84A3-C195A31B17C8}"/>
     <hyperlink ref="X67" r:id="rId40" xr:uid="{910120DD-9F42-4524-AE08-11839E3FFE08}"/>
     <hyperlink ref="E53" r:id="rId41" xr:uid="{A3763B5F-4831-407C-A3E5-3C153DCF8DBE}"/>
+    <hyperlink ref="X3" r:id="rId42" xr:uid="{E45C7C12-20A7-429F-9421-B02C77FBF0D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB86F1-EC3B-4A67-99C7-695E5D80CEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18901C4E-D920-4920-89C9-69F2AF108469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3116,9 +3116,6 @@
     <t>https://www.research-software.nl/software/cffconvert</t>
   </si>
   <si>
-    <t>SciCrunch; ASCL</t>
-  </si>
-  <si>
     <t>Registry records should not be cited in favor of published software records</t>
   </si>
   <si>
@@ -3323,6 +3320,9 @@
   </si>
   <si>
     <t>https://spdx.dev/; The FAIR4RS Principles can be applied to any research software, regardless of the license. To support a wide range of reuse scenarios, the license should be as unrestrictive as possible and, to avoid license proliferation</t>
+  </si>
+  <si>
+    <t>SciCrunch</t>
   </si>
 </sst>
 </file>
@@ -5921,10 +5921,10 @@
         <v>638</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>649</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
@@ -5955,16 +5955,16 @@
         <v>647</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>829</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5989,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>641</v>
@@ -6006,7 +6006,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>643</v>
@@ -13728,10 +13728,10 @@
         <v>824</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>832</v>
@@ -14832,16 +14832,16 @@
         <v>854</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S26" s="15" t="s">
         <v>855</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Y26" s="15" t="s">
         <v>857</v>
@@ -15894,13 +15894,13 @@
         <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -15912,7 +15912,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
@@ -16065,13 +16065,13 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q56" s="15" t="s">
         <v>428</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>429</v>
@@ -16824,10 +16824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16990,7 +16990,7 @@
         <v>924</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>483</v>
@@ -17043,16 +17043,16 @@
         <v>928</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S3" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="X3" s="32" t="s">
         <v>983</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -17087,7 +17087,7 @@
         <v>233</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="U4" s="15" t="s">
         <v>483</v>
@@ -17172,7 +17172,7 @@
         <v>233</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>493</v>
@@ -17486,7 +17486,7 @@
         <v>283</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Q13" s="15" t="s">
         <v>500</v>
@@ -17782,7 +17782,7 @@
         <v>233</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>507</v>
@@ -17847,7 +17847,7 @@
         <v>233</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="Y21" s="15" t="s">
         <v>513</v>
@@ -17888,7 +17888,7 @@
         <v>233</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>382</v>
@@ -17959,10 +17959,10 @@
         <v>496</v>
       </c>
       <c r="AA23" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="AB23" s="15" t="s">
         <v>930</v>
-      </c>
-      <c r="AB23" s="15" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18079,22 +18079,22 @@
         <v>856</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Y26" s="15" t="s">
         <v>495</v>
@@ -18284,7 +18284,7 @@
         <v>233</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="U31" s="15" t="s">
         <v>515</v>
@@ -18671,7 +18671,7 @@
         <v>233</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -18747,13 +18747,13 @@
         <v>869</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="U42" s="15" t="s">
         <v>532</v>
       </c>
       <c r="W42" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Y42" s="15" t="s">
         <v>496</v>
@@ -18829,7 +18829,7 @@
         <v>259</v>
       </c>
       <c r="AA44" s="15" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -19153,13 +19153,13 @@
         <v>714</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G53" s="15">
         <v>2022</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>392</v>
@@ -19171,7 +19171,7 @@
         <v>259</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -19212,7 +19212,7 @@
         <v>410</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="R54" s="15" t="s">
         <v>530</v>
@@ -19259,7 +19259,7 @@
         <v>233</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>419</v>
@@ -19321,10 +19321,10 @@
         <v>427</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="S56" s="15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="W56" s="15" t="s">
         <v>484</v>
@@ -19406,7 +19406,7 @@
         <v>233</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="U58" s="15" t="s">
         <v>535</v>
@@ -19450,10 +19450,10 @@
         <v>233</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q59" s="15" t="s">
         <v>517</v>
@@ -19553,7 +19553,7 @@
         <v>540</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Q61" s="15" t="s">
         <v>517</v>
@@ -19726,7 +19726,7 @@
         <v>544</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>449</v>
@@ -19832,7 +19832,7 @@
         <v>233</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>901</v>
@@ -19841,7 +19841,7 @@
         <v>493</v>
       </c>
       <c r="T67" s="15" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="U67" s="15" t="s">
         <v>532</v>
@@ -19850,7 +19850,7 @@
         <v>895</v>
       </c>
       <c r="X67" s="16" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="Y67" s="15" t="s">
         <v>545</v>
@@ -19891,7 +19891,7 @@
         <v>233</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P68" s="16" t="s">
         <v>910</v>
@@ -19900,7 +19900,7 @@
         <v>517</v>
       </c>
       <c r="R68" s="15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="U68" s="15" t="s">
         <v>532</v>
@@ -19909,10 +19909,10 @@
         <v>913</v>
       </c>
       <c r="W68" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="X68" s="16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Y68" s="15" t="s">
         <v>496</v>
@@ -20032,10 +20032,10 @@
         <v>233</v>
       </c>
       <c r="W71" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="X71" s="15" t="s">
         <v>944</v>
-      </c>
-      <c r="X71" s="15" t="s">
-        <v>945</v>
       </c>
       <c r="Y71" s="15" t="s">
         <v>496</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18901C4E-D920-4920-89C9-69F2AF108469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332E95D-C5CD-497E-BC6C-89E6A63C3873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16824,10 +16824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E332E95D-C5CD-497E-BC6C-89E6A63C3873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6007A336-1709-4AB5-9FFC-0F365F6766F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
-    <sheet name="fair4rsv1.0Instructions" sheetId="7" r:id="rId2"/>
-    <sheet name="fair4rsv1.0InstructionsCategory" sheetId="8" r:id="rId3"/>
-    <sheet name="reviewStrategy" sheetId="1" r:id="rId4"/>
-    <sheet name="resourcesList" sheetId="4" r:id="rId5"/>
-    <sheet name="resourcesReview" sheetId="5" r:id="rId6"/>
-    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId7"/>
+    <sheet name="codebook new" sheetId="9" r:id="rId2"/>
+    <sheet name="fair4rsv1.0Instructions" sheetId="7" r:id="rId3"/>
+    <sheet name="fair4rsv1.0InstructionsCategory" sheetId="8" r:id="rId4"/>
+    <sheet name="reviewStrategy" sheetId="1" r:id="rId5"/>
+    <sheet name="resourcesList" sheetId="4" r:id="rId6"/>
+    <sheet name="resourcesReview" sheetId="5" r:id="rId7"/>
+    <sheet name="resourcesReviewKeywords" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="986">
   <si>
     <t>reviewCategory</t>
   </si>
@@ -3323,6 +3324,9 @@
   </si>
   <si>
     <t>SciCrunch</t>
+  </si>
+  <si>
+    <t>fair4rsv1.0Instructions</t>
   </si>
 </sst>
 </file>
@@ -3513,6 +3517,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3527,9 +3534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3814,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C8F5D-D1F8-4C3C-916A-C26AC74F8087}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView zoomScale="52" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,11 +5040,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2427A3B1-0328-4098-ADF9-6D0FBB76AA04}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A66FF-FB53-4D7D-93AD-C2CA3F6CAE27}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5052,20 +5142,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -5101,20 +5191,20 @@
       <c r="A7" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>626</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -5150,16 +5240,16 @@
       <c r="A13" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -5195,16 +5285,16 @@
       <c r="A19" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
@@ -5240,16 +5330,16 @@
       <c r="A25" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="32"/>
     </row>
     <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
@@ -5285,16 +5375,16 @@
       <c r="A31" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>637</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="32"/>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="31"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
@@ -5328,22 +5418,22 @@
       <c r="A37" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>636</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="32"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="28"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
@@ -5379,16 +5469,16 @@
       <c r="A45" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="29" t="s">
         <v>630</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
@@ -5424,16 +5514,16 @@
       <c r="A51" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="C51" s="28"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
@@ -5469,16 +5559,16 @@
       <c r="A57" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="29" t="s">
         <v>627</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="29"/>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="28"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
@@ -5514,26 +5604,26 @@
       <c r="A63" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C63" s="29"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="28"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
@@ -5569,16 +5659,16 @@
       <c r="A71" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="29" t="s">
         <v>629</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="29"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="28"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
@@ -5614,22 +5704,22 @@
       <c r="A77" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="29" t="s">
         <v>631</v>
       </c>
-      <c r="C77" s="28"/>
+      <c r="C77" s="29"/>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="C79" s="29"/>
+      <c r="C79" s="30"/>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="28"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
@@ -5665,16 +5755,16 @@
       <c r="A85" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="C85" s="28"/>
+      <c r="C85" s="29"/>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="C87" s="27"/>
+      <c r="C87" s="28"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
@@ -5710,16 +5800,16 @@
       <c r="A91" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="C91" s="28"/>
+      <c r="C91" s="29"/>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="28"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
@@ -5755,16 +5845,16 @@
       <c r="A97" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="C97" s="28"/>
+      <c r="C97" s="29"/>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="C99" s="27"/>
+      <c r="C99" s="28"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
@@ -5798,16 +5888,16 @@
       <c r="A103" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="29" t="s">
         <v>634</v>
       </c>
-      <c r="C103" s="28"/>
+      <c r="C103" s="29"/>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="C105" s="27"/>
+      <c r="C105" s="28"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
@@ -5843,35 +5933,13 @@
       <c r="A109" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="C109" s="28"/>
+      <c r="C109" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5888,13 +5956,35 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -6024,7 +6114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -6308,7 +6398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G314"/>
   <sheetViews>
@@ -13574,7 +13664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EE843-E3DA-42D6-9C6E-79F5CD2EA4F7}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
@@ -16820,11 +16910,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
@@ -17051,7 +17141,7 @@
       <c r="S3" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="27" t="s">
         <v>983</v>
       </c>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BPatel\Documents\GitHub\Data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\Data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6007A336-1709-4AB5-9FFC-0F365F6766F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F10F82-DDA1-4BD7-93BE-1F7FCE8F132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="2" r:id="rId1"/>
@@ -3822,17 +3822,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="127" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>551</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>550</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>550</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>550</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>550</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>550</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>550</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>550</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>550</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>550</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>550</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>550</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>550</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -5043,21 +5043,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2427A3B1-0328-4098-ADF9-6D0FBB76AA04}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>551</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>985</v>
       </c>
@@ -5085,37 +5085,37 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>985</v>
       </c>
@@ -5129,35 +5129,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868A66FF-FB53-4D7D-93AD-C2CA3F6CAE27}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="87.5703125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="21.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.54296875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="87.54296875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>591</v>
       </c>
       <c r="C1" s="30"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="28" t="s">
         <v>573</v>
       </c>
       <c r="C3" s="28"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>578</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>575</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="143" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>576</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>579</v>
       </c>
@@ -5196,17 +5196,17 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>580</v>
       </c>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>578</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>575</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>576</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>579</v>
       </c>
@@ -5245,13 +5245,13 @@
       </c>
       <c r="C13" s="32"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>582</v>
       </c>
       <c r="C15" s="31"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>578</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>575</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>576</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>579</v>
       </c>
@@ -5290,13 +5290,13 @@
       </c>
       <c r="C19" s="32"/>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>583</v>
       </c>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>578</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>575</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="91" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>576</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>579</v>
       </c>
@@ -5335,13 +5335,13 @@
       </c>
       <c r="C25" s="32"/>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>585</v>
       </c>
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>578</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>575</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="91" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>576</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>579</v>
       </c>
@@ -5380,13 +5380,13 @@
       </c>
       <c r="C31" s="32"/>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>589</v>
       </c>
       <c r="C33" s="31"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>578</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="52" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>575</v>
       </c>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="91" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>576</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>579</v>
       </c>
@@ -5423,19 +5423,19 @@
       </c>
       <c r="C37" s="32"/>
     </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B39" s="30" t="s">
         <v>592</v>
       </c>
       <c r="C39" s="30"/>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
         <v>593</v>
       </c>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>578</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>575</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>576</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>579</v>
       </c>
@@ -5474,13 +5474,13 @@
       </c>
       <c r="C45" s="29"/>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B47" s="28" t="s">
         <v>596</v>
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>578</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="52" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>575</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>576</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>579</v>
       </c>
@@ -5519,13 +5519,13 @@
       </c>
       <c r="C51" s="29"/>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B53" s="28" t="s">
         <v>599</v>
       </c>
       <c r="C53" s="28"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>578</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="52" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>575</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>576</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>579</v>
       </c>
@@ -5564,13 +5564,13 @@
       </c>
       <c r="C57" s="29"/>
     </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B59" s="28" t="s">
         <v>601</v>
       </c>
       <c r="C59" s="28"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>578</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>575</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>576</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>579</v>
       </c>
@@ -5609,23 +5609,23 @@
       </c>
       <c r="C63" s="29"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
     </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B65" s="30" t="s">
         <v>604</v>
       </c>
       <c r="C65" s="30"/>
     </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B67" s="28" t="s">
         <v>605</v>
       </c>
       <c r="C67" s="28"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>578</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="117" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>575</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>576</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>579</v>
       </c>
@@ -5664,13 +5664,13 @@
       </c>
       <c r="C71" s="29"/>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B73" s="28" t="s">
         <v>608</v>
       </c>
       <c r="C73" s="28"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>578</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="130" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>575</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>576</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>579</v>
       </c>
@@ -5709,19 +5709,19 @@
       </c>
       <c r="C77" s="29"/>
     </row>
-    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B79" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C79" s="30"/>
     </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B81" s="28" t="s">
         <v>611</v>
       </c>
       <c r="C81" s="28"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>578</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="104" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>575</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>576</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>579</v>
       </c>
@@ -5760,13 +5760,13 @@
       </c>
       <c r="C85" s="29"/>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B87" s="28" t="s">
         <v>612</v>
       </c>
       <c r="C87" s="28"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>578</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="104" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>575</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="65" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>576</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>579</v>
       </c>
@@ -5805,13 +5805,13 @@
       </c>
       <c r="C91" s="29"/>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B93" s="28" t="s">
         <v>613</v>
       </c>
       <c r="C93" s="28"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>578</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>575</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>576</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>579</v>
       </c>
@@ -5850,13 +5850,13 @@
       </c>
       <c r="C97" s="29"/>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B99" s="28" t="s">
         <v>614</v>
       </c>
       <c r="C99" s="28"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>578</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="130" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>575</v>
       </c>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="117" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>576</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>579</v>
       </c>
@@ -5893,13 +5893,13 @@
       </c>
       <c r="C103" s="29"/>
     </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B105" s="28" t="s">
         <v>619</v>
       </c>
       <c r="C105" s="28"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>578</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="117" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>575</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>576</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>579</v>
       </c>
@@ -5940,6 +5940,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B105:C105"/>
@@ -5956,28 +5978,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5992,15 +5992,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.140625" style="18"/>
-    <col min="3" max="4" width="54.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="29.140625" style="18"/>
+    <col min="1" max="2" width="29.1796875" style="18"/>
+    <col min="3" max="4" width="54.7265625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="57.7265625" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="29.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>650</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -6122,22 +6122,22 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>821</v>
       </c>
@@ -6406,19 +6406,19 @@
       <selection activeCell="F292" sqref="F292:F314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="13.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="13"/>
+    <col min="7" max="7" width="10.453125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>2</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>2</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>2</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>2</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>2</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>2</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>2</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>2</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>2</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>2</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>2</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <v>2</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>2</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>2</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>2</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>2</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>2</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>2</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
         <v>2</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>2</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>2</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
         <v>2</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>2</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>2</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>2</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>2</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
         <v>2</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>2</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
         <v>2</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>2</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>2</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>2</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>2</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>2</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
         <v>2</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
         <v>2</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
         <v>2</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
         <v>2</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
         <v>2</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
         <v>2</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
         <v>2</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
         <v>2</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
         <v>2</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
         <v>2</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
         <v>2</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
         <v>2</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
         <v>2</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="13">
         <v>2</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
         <v>2</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="13">
         <v>2</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
         <v>2</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="13">
         <v>2</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
         <v>2</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
         <v>2</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
         <v>2</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
         <v>2</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
         <v>2</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
         <v>2</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
         <v>2</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
         <v>2</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
         <v>2</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
         <v>2</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
         <v>2</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
         <v>2</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
         <v>2</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
         <v>2</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="13">
         <v>2</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
         <v>2</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
         <v>2</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
         <v>2</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="13">
         <v>2</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="13">
         <v>2</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="13">
         <v>2</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
         <v>2</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="13">
         <v>2</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="13">
         <v>2</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
         <v>2</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
         <v>2</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
         <v>2</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
         <v>2</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
         <v>2</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
         <v>2</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="13">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
         <v>2</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
         <v>2</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="13">
         <v>2</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="13">
         <v>2</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="13">
         <v>2</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="13">
         <v>2</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
         <v>2</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="13">
         <v>2</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="13">
         <v>2</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="13">
         <v>2</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
         <v>2</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="13">
         <v>2</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="13">
         <v>2</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="13">
         <v>2</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
         <v>2</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="13">
         <v>2</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="13">
         <v>2</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="13">
         <v>2</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="13">
         <v>2</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="13">
         <v>2</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="13">
         <v>2</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="13">
         <v>2</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="13">
         <v>2</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="13">
         <v>2</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="13">
         <v>2</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="13">
         <v>2</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="13">
         <v>2</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="13">
         <v>2</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="13">
         <v>2</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="13">
         <v>2</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="13">
         <v>2</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="13">
         <v>2</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
         <v>2</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="13">
         <v>2</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="13">
         <v>2</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="13">
         <v>2</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="13">
         <v>2</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="13">
         <v>2</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="13">
         <v>2</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
         <v>2</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="13">
         <v>3</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
         <v>3</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
         <v>3</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
         <v>3</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
         <v>3</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
         <v>3</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
         <v>3</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
         <v>3</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
         <v>3</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
         <v>3</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>3</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
         <v>3</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
         <v>3</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
         <v>3</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
         <v>3</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
         <v>3</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="13">
         <v>3</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="13">
         <v>3</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="13">
         <v>3</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="13">
         <v>3</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="13">
         <v>3</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="13">
         <v>3</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="13">
         <v>3</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="13">
         <v>3</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="13">
         <v>3</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="13">
         <v>3</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="13">
         <v>3</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="13">
         <v>3</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="13">
         <v>3</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="13">
         <v>3</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="13">
         <v>3</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="13">
         <v>3</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="13">
         <v>3</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="13">
         <v>3</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="13">
         <v>3</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="13">
         <v>3</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="13">
         <v>3</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="13">
         <v>3</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="13">
         <v>3</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="13">
         <v>3</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="13">
         <v>3</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="13">
         <v>3</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="13">
         <v>3</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="13">
         <v>3</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="13">
         <v>3</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="13">
         <v>3</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="13">
         <v>3</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="13">
         <v>3</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="13">
         <v>3</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="13">
         <v>3</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="13">
         <v>3</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="13">
         <v>3</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="13">
         <v>3</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="13">
         <v>3</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="13">
         <v>3</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="13">
         <v>3</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="13">
         <v>3</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="13">
         <v>3</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="13">
         <v>3</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="13">
         <v>3</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="13">
         <v>4</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="13">
         <v>4</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="13">
         <v>4</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="13">
         <v>4</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="13">
         <v>4</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="13">
         <v>4</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="13">
         <v>4</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="13">
         <v>4</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="13">
         <v>4</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="13">
         <v>4</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="13">
         <v>4</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="13">
         <v>4</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="13">
         <v>4</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="13">
         <v>4</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="13">
         <v>4</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="13">
         <v>4</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="13">
         <v>4</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="13">
         <v>4</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="13">
         <v>4</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="13">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="13">
         <v>4</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="13">
         <v>4</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="13">
         <v>4</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="13">
         <v>4</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="13">
         <v>4</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="13">
         <v>4</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="13">
         <v>4</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="13">
         <v>4</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="13">
         <v>4</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="13">
         <v>4</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="13">
         <v>4</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="13">
         <v>4</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="13">
         <v>4</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="13">
         <v>4</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="13">
         <v>4</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="13">
         <v>4</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="13">
         <v>4</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="13">
         <v>4</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="13">
         <v>4</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="13">
         <v>4</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="13">
         <v>4</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="13">
         <v>4</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="13">
         <v>4</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="13">
         <v>4</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="13">
         <v>4</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="13">
         <v>4</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="13">
         <v>4</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="13">
         <v>4</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="13">
         <v>4</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="13">
         <v>4</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="13">
         <v>4</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="13">
         <v>4</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="13">
         <v>4</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="13">
         <v>4</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="13">
         <v>4</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="13">
         <v>4</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="13">
         <v>4</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="13">
         <v>4</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="13">
         <v>4</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="13">
         <v>4</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="13">
         <v>4</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="13">
         <v>4</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="13">
         <v>4</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="13">
         <v>4</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="13">
         <v>4</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="13">
         <v>4</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="13">
         <v>4</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="13">
         <v>4</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="13">
         <v>4</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="13">
         <v>4</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="13">
         <v>4</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="13">
         <v>4</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="13">
         <v>4</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="13">
         <v>4</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="13">
         <v>4</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="13">
         <v>4</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="13">
         <v>4</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="13">
         <v>4</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="13">
         <v>4</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="13">
         <v>4</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="13">
         <v>4</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="13">
         <v>4</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="13">
         <v>4</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="13">
         <v>4</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="13">
         <v>4</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="13">
         <v>4</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="13">
         <v>4</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="13">
         <v>4</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="13">
         <v>4</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="13">
         <v>5</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="13">
         <v>5</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="13">
         <v>5</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="13">
         <v>5</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="13">
         <v>5</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="13">
         <v>5</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="13">
         <v>5</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="13">
         <v>5</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="13">
         <v>5</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="13">
         <v>5</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="13">
         <v>5</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="13">
         <v>5</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="13">
         <v>5</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="13">
         <v>5</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="13">
         <v>5</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="13">
         <v>5</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="13">
         <v>5</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="13">
         <v>5</v>
       </c>
@@ -13674,24 +13674,24 @@
       <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="63.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="63.5703125" style="15"/>
-    <col min="4" max="4" width="22.140625" style="15" customWidth="1"/>
-    <col min="5" max="6" width="63.5703125" style="15"/>
-    <col min="7" max="7" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="54.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="20" width="63.5703125" style="15"/>
-    <col min="21" max="21" width="87.28515625" style="15" customWidth="1"/>
-    <col min="22" max="24" width="63.5703125" style="15"/>
-    <col min="25" max="25" width="95.7109375" style="15" customWidth="1"/>
-    <col min="26" max="26" width="63.5703125" style="15"/>
-    <col min="27" max="27" width="111.85546875" style="15" customWidth="1"/>
-    <col min="28" max="16384" width="63.5703125" style="15"/>
+    <col min="1" max="3" width="63.54296875" style="15"/>
+    <col min="4" max="4" width="22.1796875" style="15" customWidth="1"/>
+    <col min="5" max="6" width="63.54296875" style="15"/>
+    <col min="7" max="7" width="6.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="54.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="63.54296875" style="15"/>
+    <col min="21" max="21" width="87.26953125" style="15" customWidth="1"/>
+    <col min="22" max="24" width="63.54296875" style="15"/>
+    <col min="25" max="25" width="95.7265625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="63.54296875" style="15"/>
+    <col min="27" max="27" width="111.81640625" style="15" customWidth="1"/>
+    <col min="28" max="16384" width="63.54296875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="23" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="23" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>72</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="315" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="290" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="390.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="390.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="240" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="232" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="360" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="319" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="174" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="375" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="330" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="290" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="255" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="232" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="270" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="261" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="345" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="360" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="116" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -16920,40 +16920,40 @@
       <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="3" width="63.5703125" style="15"/>
-    <col min="4" max="4" width="19.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="97.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="15"/>
-    <col min="8" max="8" width="77.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="83.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="104.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="46.42578125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="30.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.85546875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="166.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="72.5703125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="15"/>
+    <col min="2" max="3" width="63.54296875" style="15"/>
+    <col min="4" max="4" width="19.54296875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="97.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="15"/>
+    <col min="8" max="8" width="77.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="83.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="104.26953125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="46.453125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="30.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.81640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="166.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="72.54296875" style="15" customWidth="1"/>
     <col min="18" max="18" width="36" style="15" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.85546875" style="15" customWidth="1"/>
-    <col min="22" max="22" width="119.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="53.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="159.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="60.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="87.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="82.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="64.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="15"/>
+    <col min="19" max="19" width="31.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.81640625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="119.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="159.54296875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="60.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="87.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="82.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="64.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>72</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -17676,7 +17676,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -19605,7 +19605,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -19699,7 +19699,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="210" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="174" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>70</v>
       </c>
